--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="153">
   <si>
     <t>User Role</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Vendor Setup</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -773,6 +776,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,51 +840,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,7 +1119,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1129,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1159,12 +1159,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1173,52 +1173,52 @@
       <c r="C3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="40"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="40"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="40"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1227,195 +1227,200 @@
       <c r="C8" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>149</v>
-      </c>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="47"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="47"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="47"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="47"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="47"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="47"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="47"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="47"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="47"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="47"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="22"/>
+      <c r="D18">
+        <v>48600</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="47"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="48"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="22" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="38"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="38"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="38"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="38"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="38"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="38"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="38"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="38"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="38"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -1424,42 +1429,46 @@
       <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="44"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="23" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="23" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="44"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -1468,35 +1477,35 @@
       <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="42"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="42"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="42"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="42"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -1505,119 +1514,119 @@
       <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="37"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="37"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="37"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="37"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="37"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="37"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="37"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="37"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="37"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="37"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="37"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="37"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="37"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="37"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="37"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="37"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="13" t="s">
@@ -1626,56 +1635,56 @@
       <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="31"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="31"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="31"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="31"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="31"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="31"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="31"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="15" t="s">
@@ -1684,175 +1693,175 @@
       <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="32"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="32"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="32"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="32"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="32"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="32"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="32"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="32"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="32"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="32"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="32"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="32"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="32"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="32"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="32"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="32"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="32"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="32"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="32"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="32"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="32"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="32"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="32"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="32"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="16" t="s">
@@ -1861,35 +1870,35 @@
       <c r="C92" s="17"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="33"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="33"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="33"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="33"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B97" s="18" t="s">
@@ -1898,133 +1907,133 @@
       <c r="C97" s="18"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="34"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="34"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="34"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="34"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="34"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="34"/>
+      <c r="A103" s="48"/>
       <c r="B103" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="34"/>
+      <c r="A104" s="48"/>
       <c r="B104" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="34"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="34"/>
+      <c r="A106" s="48"/>
       <c r="B106" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="34"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="34"/>
+      <c r="A108" s="48"/>
       <c r="B108" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="34"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="34"/>
+      <c r="A110" s="48"/>
       <c r="B110" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="34"/>
+      <c r="A111" s="48"/>
       <c r="B111" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="34"/>
+      <c r="A112" s="48"/>
       <c r="B112" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="34"/>
+      <c r="A113" s="48"/>
       <c r="B113" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="34"/>
+      <c r="A114" s="48"/>
       <c r="B114" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="34"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="20" t="s">
@@ -2033,98 +2042,98 @@
       <c r="C116" s="19"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="27"/>
+      <c r="A117" s="41"/>
       <c r="B117" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="27"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="27"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="27"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="27"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="27"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="27"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="27"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="27"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="27"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="27"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="27"/>
+      <c r="A128" s="41"/>
       <c r="B128" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="27"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="28" t="s">
+      <c r="A130" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B130" s="8" t="s">
@@ -2133,55 +2142,61 @@
       <c r="C130" s="4"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="28"/>
+      <c r="A131" s="42"/>
       <c r="B131" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="28"/>
+      <c r="A132" s="42"/>
       <c r="B132" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="28"/>
+      <c r="A133" s="42"/>
       <c r="B133" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="28"/>
+      <c r="A134" s="42"/>
       <c r="B134" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="28"/>
+      <c r="A135" s="42"/>
       <c r="B135" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="28"/>
+      <c r="A136" s="42"/>
       <c r="B136" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="29"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D3:D7"/>
+  <mergeCells count="15">
+    <mergeCell ref="A116:A129"/>
+    <mergeCell ref="A130:A136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A67:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A115"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A42:A58"/>
     <mergeCell ref="A21:A30"/>
@@ -2189,14 +2204,7 @@
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="A8:A20"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="A116:A129"/>
-    <mergeCell ref="A130:A136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="A67:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A115"/>
+    <mergeCell ref="D3:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="154">
   <si>
     <t>User Role</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Company Setup</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1200,7 +1203,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>147</v>
@@ -1210,29 +1213,29 @@
     <row r="7" spans="1:4">
       <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>147</v>
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="32"/>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>147</v>
@@ -1242,7 +1245,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="39"/>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>147</v>
@@ -1252,7 +1255,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="39"/>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>147</v>
@@ -1262,7 +1265,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="39"/>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>147</v>
@@ -1272,7 +1275,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="39"/>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>147</v>
@@ -1282,7 +1285,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="39"/>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>147</v>
@@ -1292,7 +1295,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="39"/>
       <c r="B15" s="8" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>147</v>
@@ -1302,7 +1305,7 @@
     <row r="16" spans="1:4">
       <c r="A16" s="39"/>
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
@@ -1312,7 +1315,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="39"/>
       <c r="B17" s="8" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>147</v>
@@ -1322,132 +1325,134 @@
     <row r="18" spans="1:4">
       <c r="A18" s="39"/>
       <c r="B18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18">
-        <v>48600</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="39"/>
       <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="39"/>
+      <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="22"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="40"/>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="40"/>
+      <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="30" t="s">
+      <c r="C21" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="30"/>
       <c r="B23" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="30"/>
       <c r="B24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="30"/>
       <c r="B25" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="30"/>
       <c r="B26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="30"/>
       <c r="B27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="30"/>
       <c r="B28" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="30"/>
       <c r="B29" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="30"/>
       <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="30"/>
+      <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="35" t="s">
+      <c r="C31" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="36"/>
-      <c r="B32" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="36"/>
       <c r="B33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>152</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="36"/>
       <c r="B34" s="10" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>152</v>
@@ -1456,755 +1461,764 @@
     <row r="35" spans="1:3">
       <c r="A35" s="36"/>
       <c r="B35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="36"/>
+      <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="23"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="37"/>
+      <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="23"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="33" t="s">
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="C37" s="24"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="34"/>
       <c r="B39" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="34"/>
       <c r="B40" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="34"/>
       <c r="B41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="24"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="34"/>
+      <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="24"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="29" t="s">
+      <c r="C42" s="24"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C42" s="22"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="29"/>
       <c r="B44" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="29"/>
       <c r="B46" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="29"/>
       <c r="B48" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="29"/>
       <c r="B49" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="29"/>
       <c r="B50" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="29"/>
       <c r="B51" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="29"/>
       <c r="B52" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="29"/>
       <c r="B53" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="29"/>
       <c r="B54" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="29"/>
       <c r="B55" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="29"/>
       <c r="B56" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="29"/>
       <c r="B57" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="29"/>
       <c r="B58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="29"/>
+      <c r="B59" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="44" t="s">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B60" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="C59" s="12"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="45"/>
-      <c r="B60" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="45"/>
       <c r="B61" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="45"/>
       <c r="B62" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="45"/>
       <c r="B63" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="45"/>
       <c r="B64" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="45"/>
       <c r="B65" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="45"/>
       <c r="B66" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="45"/>
+      <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="46" t="s">
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B68" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C67" s="14"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="46"/>
-      <c r="B68" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="46"/>
       <c r="B69" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="46"/>
       <c r="B70" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="46"/>
       <c r="B71" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="46"/>
       <c r="B72" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="46"/>
       <c r="B73" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="46"/>
       <c r="B74" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="46"/>
       <c r="B75" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="46"/>
       <c r="B76" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="46"/>
       <c r="B77" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="46"/>
       <c r="B78" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="46"/>
       <c r="B79" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="46"/>
       <c r="B80" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="46"/>
       <c r="B81" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="46"/>
       <c r="B82" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="46"/>
       <c r="B83" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="46"/>
       <c r="B84" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="46"/>
       <c r="B85" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="46"/>
       <c r="B86" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="46"/>
       <c r="B87" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="46"/>
       <c r="B88" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="46"/>
       <c r="B89" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="46"/>
       <c r="B90" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="46"/>
       <c r="B91" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="46"/>
+      <c r="B92" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="14"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="47" t="s">
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B93" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="C92" s="17"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="47"/>
-      <c r="B93" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="47"/>
       <c r="B94" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="47"/>
       <c r="B95" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="47"/>
       <c r="B96" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="47"/>
+      <c r="B97" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="17"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="48" t="s">
+      <c r="C97" s="17"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B98" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="C97" s="18"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="48"/>
-      <c r="B98" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="48"/>
       <c r="B99" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="48"/>
       <c r="B100" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="48"/>
       <c r="B101" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="48"/>
       <c r="B102" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="48"/>
       <c r="B103" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="48"/>
       <c r="B104" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="48"/>
       <c r="B105" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="48"/>
       <c r="B106" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="48"/>
       <c r="B107" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="48"/>
       <c r="B108" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="48"/>
       <c r="B109" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="48"/>
       <c r="B110" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="48"/>
       <c r="B111" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="48"/>
       <c r="B112" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="48"/>
       <c r="B113" s="18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="48"/>
       <c r="B114" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="48"/>
       <c r="B115" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="18"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="48"/>
+      <c r="B116" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C115" s="18"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="41" t="s">
+      <c r="C116" s="18"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B117" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="C116" s="19"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="41"/>
-      <c r="B117" s="20" t="s">
-        <v>127</v>
       </c>
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="41"/>
       <c r="B118" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="41"/>
       <c r="B119" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="41"/>
       <c r="B120" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="41"/>
       <c r="B121" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="41"/>
       <c r="B122" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="41"/>
       <c r="B123" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="41"/>
       <c r="B124" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="41"/>
       <c r="B125" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="41"/>
       <c r="B126" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="41"/>
       <c r="B127" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="41"/>
       <c r="B128" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="41"/>
       <c r="B129" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" s="19"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="41"/>
+      <c r="B130" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C129" s="19"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="42" t="s">
+      <c r="C130" s="19"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B131" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C130" s="4"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="42"/>
-      <c r="B131" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="42"/>
       <c r="B132" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="42"/>
       <c r="B133" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="42"/>
       <c r="B134" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="42"/>
       <c r="B135" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="42"/>
       <c r="B136" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="42"/>
+      <c r="B137" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C136" s="4"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A116:A129"/>
-    <mergeCell ref="A130:A136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="A67:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A115"/>
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
+    <mergeCell ref="D3:D18"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A42:A58"/>
-    <mergeCell ref="A21:A30"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="D3:D17"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A9:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Menu List" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="154">
   <si>
     <t>User Role</t>
   </si>
@@ -779,6 +779,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,30 +843,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,12 +1162,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1176,62 +1176,62 @@
       <c r="C3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="35" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1240,114 +1240,114 @@
       <c r="C9" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="39"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="39"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="39"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="39"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="39"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="39"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="39"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="39"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="39"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="39"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="39"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="40"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1367,14 +1367,14 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="30"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
@@ -1383,49 +1383,51 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="30"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="30"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="30"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="30"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="30"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="30"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="30"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1436,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1443,14 +1445,14 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="36"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="36"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
@@ -1459,7 +1461,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="36"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
@@ -1468,21 +1470,21 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="36"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="37"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1491,35 +1493,35 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="34"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="34"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="34"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="34"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1528,119 +1530,119 @@
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="29"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="29"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="29"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="29"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="29"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="29"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="29"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="29"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="29"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="29"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="29"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="29"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="29"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="29"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="29"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="29"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1649,56 +1651,56 @@
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="45"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="45"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="45"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="45"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="45"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="45"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="45"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1707,175 +1709,175 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="46"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="46"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="46"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="46"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="46"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="46"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="46"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="46"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="46"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="46"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="46"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="46"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="46"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="46"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="46"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="46"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="46"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="46"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="46"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="46"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="46"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="46"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="46"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="46"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1884,35 +1886,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="47"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="47"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="47"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="47"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -1921,133 +1923,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="48"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="48"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="48"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="48"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="48"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="48"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="48"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="48"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="48"/>
+      <c r="A107" s="34"/>
       <c r="B107" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="48"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="48"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="48"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="48"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="48"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="48"/>
+      <c r="A113" s="34"/>
       <c r="B113" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="48"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="48"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="48"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="41" t="s">
+      <c r="A117" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2056,98 +2058,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="41"/>
+      <c r="A118" s="27"/>
       <c r="B118" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="41"/>
+      <c r="A119" s="27"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="41"/>
+      <c r="A120" s="27"/>
       <c r="B120" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="41"/>
+      <c r="A121" s="27"/>
       <c r="B121" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="41"/>
+      <c r="A122" s="27"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="41"/>
+      <c r="A123" s="27"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="41"/>
+      <c r="A124" s="27"/>
       <c r="B124" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="41"/>
+      <c r="A125" s="27"/>
       <c r="B125" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="41"/>
+      <c r="A126" s="27"/>
       <c r="B126" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="41"/>
+      <c r="A127" s="27"/>
       <c r="B127" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="41"/>
+      <c r="A128" s="27"/>
       <c r="B128" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="41"/>
+      <c r="A129" s="27"/>
       <c r="B129" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="41"/>
+      <c r="A130" s="27"/>
       <c r="B130" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2156,61 +2158,54 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="42"/>
+      <c r="A132" s="28"/>
       <c r="B132" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="42"/>
+      <c r="A133" s="28"/>
       <c r="B133" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="42"/>
+      <c r="A134" s="28"/>
       <c r="B134" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="42"/>
+      <c r="A135" s="28"/>
       <c r="B135" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="42"/>
+      <c r="A136" s="28"/>
       <c r="B136" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="42"/>
+      <c r="A137" s="28"/>
       <c r="B137" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
     <mergeCell ref="D3:D18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A43:A59"/>
@@ -2219,6 +2214,13 @@
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A9:A21"/>
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
   <si>
     <t>User Role</t>
   </si>
@@ -475,9 +475,6 @@
   </si>
   <si>
     <t>Vendor Setup</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Company Setup</t>
@@ -705,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -779,6 +776,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,46 +842,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,12 +1162,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1176,62 +1176,62 @@
       <c r="C3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="40"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="40"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="40"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="40"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1240,123 +1240,129 @@
       <c r="C9" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="47"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="47"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="47"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="47"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="47"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="47"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="47"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="47"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="47"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="47"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="47"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="48"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>147</v>
       </c>
+      <c r="D21" s="27" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1365,78 +1371,91 @@
       <c r="C22" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="38"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="38"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="D24" s="27" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="38"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="38"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="38"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="38"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="38"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="D29" s="49" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="38"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="38"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="D31" s="49" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1445,46 +1464,42 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>152</v>
-      </c>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="44"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>152</v>
-      </c>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="44"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1493,35 +1508,35 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="42"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="42"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="42"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="42"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1530,119 +1545,119 @@
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="37"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="37"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="37"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="37"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="37"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="37"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="37"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="37"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="37"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="37"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="37"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="37"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="37"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="37"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="37"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="37"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1651,56 +1666,56 @@
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="31"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="31"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="31"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="31"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="31"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="31"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="31"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1709,175 +1724,175 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="32"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="32"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="32"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="32"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="32"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="32"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="32"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="32"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="32"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="32"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="32"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="32"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="32"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="32"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="32"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="32"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="32"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="32"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="32"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="32"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="32"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="32"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="32"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="32"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1886,35 +1901,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="33"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="33"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="33"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="33"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -1923,133 +1938,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="34"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="34"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="34"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="34"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="34"/>
+      <c r="A103" s="48"/>
       <c r="B103" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="34"/>
+      <c r="A104" s="48"/>
       <c r="B104" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="34"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="34"/>
+      <c r="A106" s="48"/>
       <c r="B106" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="34"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="34"/>
+      <c r="A108" s="48"/>
       <c r="B108" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="34"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="34"/>
+      <c r="A110" s="48"/>
       <c r="B110" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="34"/>
+      <c r="A111" s="48"/>
       <c r="B111" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="34"/>
+      <c r="A112" s="48"/>
       <c r="B112" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="34"/>
+      <c r="A113" s="48"/>
       <c r="B113" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="34"/>
+      <c r="A114" s="48"/>
       <c r="B114" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="34"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="34"/>
+      <c r="A116" s="48"/>
       <c r="B116" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2058,98 +2073,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="27"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="27"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="27"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="27"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="27"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="27"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="27"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="27"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="27"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="27"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="27"/>
+      <c r="A128" s="41"/>
       <c r="B128" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="27"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="27"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2158,55 +2173,61 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="28"/>
+      <c r="A132" s="42"/>
       <c r="B132" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="28"/>
+      <c r="A133" s="42"/>
       <c r="B133" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="28"/>
+      <c r="A134" s="42"/>
       <c r="B134" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="28"/>
+      <c r="A135" s="42"/>
       <c r="B135" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="28"/>
+      <c r="A136" s="42"/>
       <c r="B136" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="28"/>
+      <c r="A137" s="42"/>
       <c r="B137" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D3:D18"/>
+  <mergeCells count="17">
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A43:A59"/>
     <mergeCell ref="A22:A31"/>
@@ -2214,13 +2235,9 @@
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A9:A21"/>
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="153">
   <si>
     <t>User Role</t>
   </si>
@@ -776,7 +776,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,31 +842,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,12 +1162,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1176,62 +1176,62 @@
       <c r="C3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="49" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1240,129 +1240,129 @@
       <c r="C9" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="39"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="39"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="39"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="39"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="39"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="39"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="39"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="39"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="39"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="39"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="39"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="40"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="49" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1371,91 +1371,93 @@
       <c r="C22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="30"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="49" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="30"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="30"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="30"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="30"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="30"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="30"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="30"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1464,42 +1466,42 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="36"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="36"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="36"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="36"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="37"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1508,35 +1510,35 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="34"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="34"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="34"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="34"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1545,119 +1547,119 @@
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="29"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="29"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="29"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="29"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="29"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="29"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="29"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="29"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="29"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="29"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="29"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="29"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="29"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="29"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="29"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="29"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1666,56 +1668,56 @@
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="45"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="45"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="45"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="45"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="45"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="45"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="45"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1724,175 +1726,175 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="46"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="46"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="46"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="46"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="46"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="46"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="46"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="46"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="46"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="46"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="46"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="46"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="46"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="46"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="46"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="46"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="46"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="46"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="46"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="46"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="46"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="46"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="46"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="46"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1901,35 +1903,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="47"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="47"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="47"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="47"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -1938,133 +1940,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="48"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="48"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="48"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="48"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="48"/>
+      <c r="A103" s="35"/>
       <c r="B103" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="48"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="48"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="48"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="48"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="48"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="48"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="48"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="48"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="48"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="48"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="48"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="48"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="48"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="41" t="s">
+      <c r="A117" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2073,98 +2075,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="41"/>
+      <c r="A118" s="28"/>
       <c r="B118" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="41"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="41"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="41"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="41"/>
+      <c r="A122" s="28"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="41"/>
+      <c r="A123" s="28"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="41"/>
+      <c r="A124" s="28"/>
       <c r="B124" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="41"/>
+      <c r="A125" s="28"/>
       <c r="B125" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="41"/>
+      <c r="A126" s="28"/>
       <c r="B126" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="41"/>
+      <c r="A127" s="28"/>
       <c r="B127" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="41"/>
+      <c r="A128" s="28"/>
       <c r="B128" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="41"/>
+      <c r="A129" s="28"/>
       <c r="B129" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="41"/>
+      <c r="A130" s="28"/>
       <c r="B130" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2173,54 +2175,64 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="42"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="42"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="42"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="42"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="42"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="42"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A9:A21"/>
     <mergeCell ref="A117:A130"/>
     <mergeCell ref="A131:A137"/>
     <mergeCell ref="A138:C138"/>
@@ -2228,16 +2240,6 @@
     <mergeCell ref="A68:A92"/>
     <mergeCell ref="A93:A97"/>
     <mergeCell ref="A98:A116"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="D3:D19"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="153">
   <si>
     <t>User Role</t>
   </si>
@@ -702,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -776,7 +776,46 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,48 +840,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1119,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1132,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,12 +1159,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1176,62 +1173,62 @@
       <c r="C3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="40"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="40"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="40"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="40"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1240,129 +1237,129 @@
       <c r="C9" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="47"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="47"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="47"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="47"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="47"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="47"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="47"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="47"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="47"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="47"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="47"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="48"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1371,39 +1368,39 @@
       <c r="C22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="38"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="38"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="38"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="49"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="38"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
@@ -1412,21 +1409,21 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="38"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="38"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="38"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
@@ -1438,26 +1435,27 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="38"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="38"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>149</v>
-      </c>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1465,43 +1463,51 @@
       </c>
       <c r="C32" s="23"/>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="44"/>
+    <row r="33" spans="1:4">
+      <c r="A33" s="36"/>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="23"/>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:4">
+      <c r="A34" s="36"/>
       <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="23"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="44"/>
+      <c r="C34" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="36"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="23"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="44"/>
+      <c r="C35" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="36"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23"/>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="37"/>
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="23"/>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1509,36 +1515,36 @@
       </c>
       <c r="C38" s="24"/>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="42"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="34"/>
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="42"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="34"/>
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="42"/>
+    <row r="41" spans="1:4">
+      <c r="A41" s="34"/>
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="24"/>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="42"/>
+    <row r="42" spans="1:4">
+      <c r="A42" s="34"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="24"/>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1546,120 +1552,120 @@
       </c>
       <c r="C43" s="22"/>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="37"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="29"/>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="22"/>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="37"/>
+    <row r="45" spans="1:4">
+      <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="22"/>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="37"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="29"/>
       <c r="B46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="22"/>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="22"/>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="37"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="29"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="37"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="37"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="37"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="37"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="37"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="37"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="37"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="37"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="37"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="37"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="37"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1668,56 +1674,56 @@
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="32"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="32"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="32"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="32"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="32"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="32"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="32"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1726,175 +1732,175 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="33"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="33"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="33"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="33"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="33"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="33"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="33"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="33"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="33"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="33"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="33"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="33"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="33"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="33"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="33"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="33"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="33"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="33"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="33"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="33"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="33"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="33"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="33"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="33"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1903,35 +1909,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="34"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="34"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="34"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="34"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="35" t="s">
+      <c r="A98" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -1940,133 +1946,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="35"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="35"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="35"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="35"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="35"/>
+      <c r="A103" s="48"/>
       <c r="B103" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="35"/>
+      <c r="A104" s="48"/>
       <c r="B104" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="35"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="35"/>
+      <c r="A106" s="48"/>
       <c r="B106" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="35"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="35"/>
+      <c r="A108" s="48"/>
       <c r="B108" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="35"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="35"/>
+      <c r="A110" s="48"/>
       <c r="B110" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="35"/>
+      <c r="A111" s="48"/>
       <c r="B111" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="35"/>
+      <c r="A112" s="48"/>
       <c r="B112" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="35"/>
+      <c r="A113" s="48"/>
       <c r="B113" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="35"/>
+      <c r="A114" s="48"/>
       <c r="B114" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="35"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="35"/>
+      <c r="A116" s="48"/>
       <c r="B116" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2075,98 +2081,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="28"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="28"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="28"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="28"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="28"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="28"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="28"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="28"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="28"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="28"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="28"/>
+      <c r="A128" s="41"/>
       <c r="B128" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="28"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="28"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2175,54 +2181,61 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="29"/>
+      <c r="A132" s="42"/>
       <c r="B132" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="29"/>
+      <c r="A133" s="42"/>
       <c r="B133" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="29"/>
+      <c r="A134" s="42"/>
       <c r="B134" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="29"/>
+      <c r="A135" s="42"/>
       <c r="B135" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="29"/>
+      <c r="A136" s="42"/>
       <c r="B136" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="29"/>
+      <c r="A137" s="42"/>
       <c r="B137" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
     <mergeCell ref="D3:D19"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D24:D25"/>
@@ -2233,13 +2246,8 @@
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A9:A21"/>
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D34:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -776,6 +776,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,30 +840,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,7 +1119,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1159,12 +1159,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1173,62 +1173,62 @@
       <c r="C3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="35" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1237,129 +1237,130 @@
       <c r="C9" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="39"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="39"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="39"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="39"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="39"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="39"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="39"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="39"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="39"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="39"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="39"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="35"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="40"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>149</v>
-      </c>
+      <c r="D21" s="35"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1368,39 +1369,39 @@
       <c r="C22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="35"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="30"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="35" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="30"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="30"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
@@ -1409,53 +1410,53 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="30"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="30"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="30"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="35" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="30"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="30"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="35"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1464,50 +1465,50 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="36"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="36"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="35" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="36"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="36"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="37"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1516,35 +1517,35 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="34"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="34"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="34"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="34"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1553,119 +1554,119 @@
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="29"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="29"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="29"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="29"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="29"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="29"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="29"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="29"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="29"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="29"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="29"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="29"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="29"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="29"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="29"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="29"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1674,56 +1675,56 @@
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="45"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="45"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="45"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="45"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="45"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="45"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="45"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1732,175 +1733,175 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="46"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="46"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="46"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="46"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="46"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="46"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="46"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="46"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="46"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="46"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="46"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="46"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="46"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="46"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="46"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="46"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="46"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="46"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="46"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="46"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="46"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="46"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="46"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="46"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1909,35 +1910,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="47"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="47"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="47"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="47"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -1946,133 +1947,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="48"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="48"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="48"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="48"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="48"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="48"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="48"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="48"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="48"/>
+      <c r="A107" s="34"/>
       <c r="B107" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="48"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="48"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="48"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="48"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="48"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="48"/>
+      <c r="A113" s="34"/>
       <c r="B113" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="48"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="48"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="48"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="41" t="s">
+      <c r="A117" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2081,98 +2082,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="41"/>
+      <c r="A118" s="27"/>
       <c r="B118" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="41"/>
+      <c r="A119" s="27"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="41"/>
+      <c r="A120" s="27"/>
       <c r="B120" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="41"/>
+      <c r="A121" s="27"/>
       <c r="B121" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="41"/>
+      <c r="A122" s="27"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="41"/>
+      <c r="A123" s="27"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="41"/>
+      <c r="A124" s="27"/>
       <c r="B124" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="41"/>
+      <c r="A125" s="27"/>
       <c r="B125" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="41"/>
+      <c r="A126" s="27"/>
       <c r="B126" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="41"/>
+      <c r="A127" s="27"/>
       <c r="B127" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="41"/>
+      <c r="A128" s="27"/>
       <c r="B128" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="41"/>
+      <c r="A129" s="27"/>
       <c r="B129" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="41"/>
+      <c r="A130" s="27"/>
       <c r="B130" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2181,63 +2182,54 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="42"/>
+      <c r="A132" s="28"/>
       <c r="B132" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="42"/>
+      <c r="A133" s="28"/>
       <c r="B133" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="42"/>
+      <c r="A134" s="28"/>
       <c r="B134" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="42"/>
+      <c r="A135" s="28"/>
       <c r="B135" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="42"/>
+      <c r="A136" s="28"/>
       <c r="B136" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="42"/>
+      <c r="A137" s="28"/>
       <c r="B137" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
-    <mergeCell ref="D3:D19"/>
-    <mergeCell ref="D21:D22"/>
+  <mergeCells count="18">
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A43:A59"/>
@@ -2248,6 +2240,14 @@
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D3:D22"/>
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
   <si>
     <t>User Role</t>
   </si>
@@ -702,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -776,6 +776,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,47 +842,8 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,7 +1122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1129,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1159,12 +1162,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1173,62 +1176,62 @@
       <c r="C3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="40"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="40"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="40"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="40"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1237,130 +1240,130 @@
       <c r="C9" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="47"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="47"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="47"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="47"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="47"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="47"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="47"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="47"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="47"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="47"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="47"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="48"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1369,39 +1372,39 @@
       <c r="C22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="38"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="38"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="38"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="38"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
@@ -1410,53 +1413,53 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="38"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="38"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="38"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="38"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="38"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1465,50 +1468,53 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="44"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="44"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="44"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="35"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="44"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="45"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1517,156 +1523,161 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="42"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="42"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="42"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="42"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="22"/>
+      <c r="C43" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="37"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="37"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="37"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="37"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="37"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="37"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="37"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="37"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="37"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="37"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="37"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="37"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="37"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="37"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="37"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="37"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1675,56 +1686,56 @@
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="31"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="31"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="31"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="31"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="31"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="31"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="31"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1733,175 +1744,175 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="32"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="32"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="32"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="32"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="32"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="32"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="32"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="32"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="32"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="32"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="32"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="32"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="32"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="32"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="32"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="32"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="32"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="32"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="32"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="32"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="32"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="32"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="32"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="32"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1910,35 +1921,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="33"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="33"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="33"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="33"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -1947,133 +1958,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="34"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="34"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="34"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="34"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="34"/>
+      <c r="A103" s="48"/>
       <c r="B103" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="34"/>
+      <c r="A104" s="48"/>
       <c r="B104" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="34"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="34"/>
+      <c r="A106" s="48"/>
       <c r="B106" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="34"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="34"/>
+      <c r="A108" s="48"/>
       <c r="B108" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="34"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="34"/>
+      <c r="A110" s="48"/>
       <c r="B110" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="34"/>
+      <c r="A111" s="48"/>
       <c r="B111" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="34"/>
+      <c r="A112" s="48"/>
       <c r="B112" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="34"/>
+      <c r="A113" s="48"/>
       <c r="B113" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="34"/>
+      <c r="A114" s="48"/>
       <c r="B114" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="34"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="34"/>
+      <c r="A116" s="48"/>
       <c r="B116" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2082,98 +2093,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="27"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="27"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="27"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="27"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="27"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="27"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="27"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="27"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="27"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="27"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="27"/>
+      <c r="A128" s="41"/>
       <c r="B128" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="27"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="27"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2182,54 +2193,61 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="28"/>
+      <c r="A132" s="42"/>
       <c r="B132" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="28"/>
+      <c r="A133" s="42"/>
       <c r="B133" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="28"/>
+      <c r="A134" s="42"/>
       <c r="B134" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="28"/>
+      <c r="A135" s="42"/>
       <c r="B135" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="28"/>
+      <c r="A136" s="42"/>
       <c r="B136" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="28"/>
+      <c r="A137" s="42"/>
       <c r="B137" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A43:A59"/>
@@ -2239,15 +2257,8 @@
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D34:D35"/>
     <mergeCell ref="D3:D22"/>
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
+    <mergeCell ref="D34:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
   <si>
     <t>User Role</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>Company Setup</t>
+  </si>
+  <si>
+    <t>Jishan</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -776,6 +788,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,32 +857,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,7 +1137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1132,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,12 +1177,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1176,62 +1191,62 @@
       <c r="C3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1240,130 +1255,130 @@
       <c r="C9" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="39"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="39"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="39"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="39"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="39"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="39"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="39"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="39"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="39"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="39"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="39"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="40"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="39" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1372,39 +1387,39 @@
       <c r="C22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="30"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="30"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="30"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
@@ -1413,53 +1428,53 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="30"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="30"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="30"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="30"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="30"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1468,53 +1483,53 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="36"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="36"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="36"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="36"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="36"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="37"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1523,35 +1538,35 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="34"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="34"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="34"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="34"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1560,124 +1575,131 @@
       <c r="C43" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="27" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="29"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="22"/>
+      <c r="C44" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="29"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="29"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="29"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="29"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="29"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="29"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="29"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="29"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="29"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="29"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="29"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="29"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="29"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="29"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="29"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1686,56 +1708,56 @@
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="45"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="45"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="45"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="45"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="45"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="45"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="45"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1744,175 +1766,175 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="46"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="46"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="46"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="46"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="46"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="46"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="46"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="46"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="46"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="46"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="46"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="46"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="46"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="46"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="46"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="46"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="46"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="46"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="46"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="46"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="46"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="46"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="46"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="46"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1921,35 +1943,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="47"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="47"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="47"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="47"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -1958,133 +1980,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="48"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="48"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="48"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="48"/>
+      <c r="A102" s="35"/>
       <c r="B102" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="48"/>
+      <c r="A103" s="35"/>
       <c r="B103" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="48"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="48"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="48"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="48"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="48"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="48"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="48"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="48"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="48"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="48"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="48"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="48"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="48"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="41" t="s">
+      <c r="A117" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2093,98 +2115,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="41"/>
+      <c r="A118" s="28"/>
       <c r="B118" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="41"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="41"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="41"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="41"/>
+      <c r="A122" s="28"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="41"/>
+      <c r="A123" s="28"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="41"/>
+      <c r="A124" s="28"/>
       <c r="B124" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="41"/>
+      <c r="A125" s="28"/>
       <c r="B125" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="41"/>
+      <c r="A126" s="28"/>
       <c r="B126" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="41"/>
+      <c r="A127" s="28"/>
       <c r="B127" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="41"/>
+      <c r="A128" s="28"/>
       <c r="B128" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="41"/>
+      <c r="A129" s="28"/>
       <c r="B129" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="41"/>
+      <c r="A130" s="28"/>
       <c r="B130" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2193,61 +2215,54 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="42"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="42"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="42"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="42"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="42"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="42"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A43:A59"/>
@@ -2259,6 +2274,13 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D3:D22"/>
     <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
   <si>
     <t>User Role</t>
   </si>
@@ -481,9 +481,6 @@
   </si>
   <si>
     <t>Jishan</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -714,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -791,6 +788,48 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,49 +854,10 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1177,12 +1177,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1191,62 +1191,62 @@
       <c r="C3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="28" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="41"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="41"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="41"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="41"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1255,130 +1255,130 @@
       <c r="C9" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="48"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="48"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="48"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="48"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="48"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="48"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="48"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="48"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="48"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="48"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="48"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="49"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1387,39 +1387,39 @@
       <c r="C22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="39"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="39"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="28" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="39"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="39"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
@@ -1428,53 +1428,53 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="39"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="39"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="39"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="28" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="39"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="39"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1483,53 +1483,53 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="45"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="45"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="28" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="45"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="36"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="45"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="36"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="46"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1538,35 +1538,35 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="43"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="43"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="43"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="43"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1580,126 +1580,143 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="38"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="51" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="38"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="51"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="38"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="51"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="38"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="51"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="38"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="38"/>
+    <row r="49" spans="1:4">
+      <c r="A49" s="30"/>
       <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:4">
+      <c r="A50" s="30"/>
       <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:4">
+      <c r="A51" s="30"/>
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:4">
+      <c r="A52" s="30"/>
       <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:4">
+      <c r="A53" s="30"/>
       <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="22"/>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="38"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="30"/>
       <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:4">
+      <c r="A55" s="30"/>
       <c r="B55" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="38"/>
+        <v>147</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="30"/>
       <c r="B56" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:4">
+      <c r="A57" s="30"/>
       <c r="B57" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:4">
+      <c r="A58" s="30"/>
       <c r="B58" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="38"/>
+      <c r="C58" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="30"/>
       <c r="B59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="31" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1707,57 +1724,57 @@
       </c>
       <c r="C60" s="12"/>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="32"/>
+    <row r="61" spans="1:4">
+      <c r="A61" s="46"/>
       <c r="B61" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="12"/>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="32"/>
+    <row r="62" spans="1:4">
+      <c r="A62" s="46"/>
       <c r="B62" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="12"/>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="32"/>
+    <row r="63" spans="1:4">
+      <c r="A63" s="46"/>
       <c r="B63" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="12"/>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="32"/>
+    <row r="64" spans="1:4">
+      <c r="A64" s="46"/>
       <c r="B64" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="32"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="32"/>
+      <c r="A66" s="46"/>
       <c r="B66" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="32"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1766,175 +1783,175 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="33"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="33"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="33"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="33"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="33"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="33"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="33"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="33"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="33"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="33"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="33"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="33"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="33"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="33"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="33"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="33"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="33"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="33"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="33"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="33"/>
+      <c r="A88" s="47"/>
       <c r="B88" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="33"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="33"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="33"/>
+      <c r="A91" s="47"/>
       <c r="B91" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="33"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1943,35 +1960,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="34"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="34"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="34"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="34"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="35" t="s">
+      <c r="A98" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -1980,133 +1997,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="35"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="35"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="35"/>
+      <c r="A101" s="49"/>
       <c r="B101" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="35"/>
+      <c r="A102" s="49"/>
       <c r="B102" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="35"/>
+      <c r="A103" s="49"/>
       <c r="B103" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="35"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="35"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="35"/>
+      <c r="A106" s="49"/>
       <c r="B106" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="35"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="35"/>
+      <c r="A108" s="49"/>
       <c r="B108" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="35"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="35"/>
+      <c r="A110" s="49"/>
       <c r="B110" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="35"/>
+      <c r="A111" s="49"/>
       <c r="B111" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="35"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="35"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="35"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="35"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="35"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2115,98 +2132,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="28"/>
+      <c r="A118" s="42"/>
       <c r="B118" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="28"/>
+      <c r="A119" s="42"/>
       <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="28"/>
+      <c r="A120" s="42"/>
       <c r="B120" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="28"/>
+      <c r="A121" s="42"/>
       <c r="B121" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="28"/>
+      <c r="A122" s="42"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="28"/>
+      <c r="A123" s="42"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="28"/>
+      <c r="A124" s="42"/>
       <c r="B124" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="28"/>
+      <c r="A125" s="42"/>
       <c r="B125" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="28"/>
+      <c r="A126" s="42"/>
       <c r="B126" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="28"/>
+      <c r="A127" s="42"/>
       <c r="B127" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="28"/>
+      <c r="A128" s="42"/>
       <c r="B128" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="28"/>
+      <c r="A129" s="42"/>
       <c r="B129" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="28"/>
+      <c r="A130" s="42"/>
       <c r="B130" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2215,54 +2232,61 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="29"/>
+      <c r="A132" s="43"/>
       <c r="B132" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="29"/>
+      <c r="A133" s="43"/>
       <c r="B133" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="29"/>
+      <c r="A134" s="43"/>
       <c r="B134" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="29"/>
+      <c r="A135" s="43"/>
       <c r="B135" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="29"/>
+      <c r="A136" s="43"/>
       <c r="B136" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="29"/>
+      <c r="A137" s="43"/>
       <c r="B137" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A43:A59"/>
@@ -2274,13 +2298,7 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D3:D22"/>
     <mergeCell ref="D34:D36"/>
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
+    <mergeCell ref="D44:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="154">
   <si>
     <t>User Role</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Customer Delivery Record</t>
   </si>
   <si>
-    <t>Customer Ledger Report</t>
-  </si>
-  <si>
     <t>Customer Outstanding Report</t>
   </si>
   <si>
@@ -481,6 +478,9 @@
   </si>
   <si>
     <t>Jishan</t>
+  </si>
+  <si>
+    <t>Customer Statement</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -788,6 +788,30 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,33 +852,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,7 +1134,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1148,7 +1145,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1170,311 +1167,311 @@
         <v>3</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="33"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="33"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="33"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="33"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="33"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="40"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="40"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="40"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="40"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="40"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="40"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="40"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="40"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="40"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="40"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="40"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="41"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="39" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="31"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="31"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="31"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="31"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="31"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="31"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="31"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="31"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="31"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1483,53 +1480,53 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="37"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="37"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="37"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D35" s="36"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="37"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="38"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1538,755 +1535,751 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="35"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="35"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="35"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="35"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="30"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="30"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="51"/>
+        <v>146</v>
+      </c>
+      <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="30"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="51"/>
+        <v>146</v>
+      </c>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="30"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="51"/>
+        <v>146</v>
+      </c>
+      <c r="D47" s="50"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="30"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="30"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="30"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="30"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="30"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="30"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="30"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="38"/>
+      <c r="B55" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="30"/>
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="36"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="38"/>
+      <c r="B56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" s="50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="30"/>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="38"/>
+      <c r="B57" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="30"/>
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="38"/>
+      <c r="B58" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="30"/>
-      <c r="B58" s="8" t="s">
+      <c r="C58" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="38"/>
+      <c r="B59" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="30"/>
-      <c r="B59" s="8" t="s">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="13" t="s">
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="32"/>
+      <c r="B61" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="12"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="46"/>
-      <c r="B61" s="13" t="s">
+      <c r="C61" s="12"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="32"/>
+      <c r="B62" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="12"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="46"/>
-      <c r="B62" s="13" t="s">
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="32"/>
+      <c r="B63" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="12"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="46"/>
-      <c r="B63" s="13" t="s">
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="32"/>
+      <c r="B64" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="12"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="46"/>
-      <c r="B64" s="13" t="s">
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="32"/>
+      <c r="B65" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="12"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="46"/>
-      <c r="B65" s="13" t="s">
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="32"/>
+      <c r="B66" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="12"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="46"/>
-      <c r="B66" s="13" t="s">
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="32"/>
+      <c r="B67" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="46"/>
-      <c r="B67" s="13" t="s">
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="12"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="15" t="s">
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="33"/>
+      <c r="B69" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="14"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="47"/>
-      <c r="B69" s="15" t="s">
+      <c r="C69" s="14"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="33"/>
+      <c r="B70" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="14"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="47"/>
-      <c r="B70" s="15" t="s">
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="33"/>
+      <c r="B71" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="14"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="47"/>
-      <c r="B71" s="15" t="s">
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="33"/>
+      <c r="B72" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="14"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="47"/>
-      <c r="B72" s="15" t="s">
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="33"/>
+      <c r="B73" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="47"/>
-      <c r="B73" s="15" t="s">
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="33"/>
+      <c r="B74" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="14"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="47"/>
-      <c r="B74" s="15" t="s">
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="33"/>
+      <c r="B75" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="14"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="47"/>
-      <c r="B75" s="15" t="s">
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="33"/>
+      <c r="B76" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="14"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="47"/>
-      <c r="B76" s="15" t="s">
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="33"/>
+      <c r="B77" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="14"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="47"/>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="33"/>
+      <c r="B78" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="14"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="47"/>
-      <c r="B78" s="15" t="s">
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="33"/>
+      <c r="B79" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="14"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="47"/>
-      <c r="B79" s="15" t="s">
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="33"/>
+      <c r="B80" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="47"/>
-      <c r="B80" s="15" t="s">
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="33"/>
+      <c r="B81" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="14"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="47"/>
-      <c r="B81" s="15" t="s">
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="33"/>
+      <c r="B82" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="14"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="47"/>
-      <c r="B82" s="15" t="s">
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="33"/>
+      <c r="B83" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="14"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="47"/>
-      <c r="B83" s="15" t="s">
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="33"/>
+      <c r="B84" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="14"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="47"/>
-      <c r="B84" s="15" t="s">
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="33"/>
+      <c r="B85" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="14"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="47"/>
-      <c r="B85" s="15" t="s">
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="33"/>
+      <c r="B86" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="14"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="47"/>
-      <c r="B86" s="15" t="s">
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="33"/>
+      <c r="B87" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="14"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="47"/>
-      <c r="B87" s="15" t="s">
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="33"/>
+      <c r="B88" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="14"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="47"/>
-      <c r="B88" s="15" t="s">
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="33"/>
+      <c r="B89" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="14"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="47"/>
-      <c r="B89" s="15" t="s">
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="33"/>
+      <c r="B90" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="14"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="47"/>
-      <c r="B90" s="15" t="s">
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="33"/>
+      <c r="B91" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="47"/>
-      <c r="B91" s="15" t="s">
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="33"/>
+      <c r="B92" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="14"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="47"/>
-      <c r="B92" s="15" t="s">
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="14"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="16" t="s">
+      <c r="C93" s="17"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="34"/>
+      <c r="B94" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="17"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="48"/>
-      <c r="B94" s="16" t="s">
+      <c r="C94" s="17"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="34"/>
+      <c r="B95" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C94" s="17"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="16" t="s">
+      <c r="C95" s="17"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="34"/>
+      <c r="B96" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="17"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="48"/>
-      <c r="B96" s="16" t="s">
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="34"/>
+      <c r="B97" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="17"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="48"/>
-      <c r="B97" s="16" t="s">
+      <c r="C97" s="17"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C97" s="17"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" s="18" t="s">
+      <c r="C98" s="18"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="35"/>
+      <c r="B99" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="18"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="49"/>
-      <c r="B99" s="18" t="s">
+      <c r="C99" s="18"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="35"/>
+      <c r="B100" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="18"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="49"/>
-      <c r="B100" s="18" t="s">
+      <c r="C100" s="18"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="35"/>
+      <c r="B101" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C100" s="18"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="49"/>
-      <c r="B101" s="18" t="s">
+      <c r="C101" s="18"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="35"/>
+      <c r="B102" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C101" s="18"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="49"/>
-      <c r="B102" s="18" t="s">
+      <c r="C102" s="18"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="35"/>
+      <c r="B103" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C102" s="18"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="49"/>
-      <c r="B103" s="18" t="s">
+      <c r="C103" s="18"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="35"/>
+      <c r="B104" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="18"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="49"/>
-      <c r="B104" s="18" t="s">
+      <c r="C104" s="18"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="35"/>
+      <c r="B105" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C104" s="18"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="49"/>
-      <c r="B105" s="18" t="s">
+      <c r="C105" s="18"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="35"/>
+      <c r="B106" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="18"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="49"/>
-      <c r="B106" s="18" t="s">
+      <c r="C106" s="18"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="35"/>
+      <c r="B107" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C106" s="18"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="49"/>
-      <c r="B107" s="18" t="s">
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="35"/>
+      <c r="B108" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C107" s="18"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="49"/>
-      <c r="B108" s="18" t="s">
+      <c r="C108" s="18"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="35"/>
+      <c r="B109" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C108" s="18"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="49"/>
-      <c r="B109" s="18" t="s">
+      <c r="C109" s="18"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="35"/>
+      <c r="B110" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C109" s="18"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="49"/>
-      <c r="B110" s="18" t="s">
+      <c r="C110" s="18"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="35"/>
+      <c r="B111" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C110" s="18"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="49"/>
-      <c r="B111" s="18" t="s">
+      <c r="C111" s="18"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="35"/>
+      <c r="B112" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C111" s="18"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="49"/>
-      <c r="B112" s="18" t="s">
+      <c r="C112" s="18"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="35"/>
+      <c r="B113" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="18"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="35"/>
+      <c r="B114" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C112" s="18"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="49"/>
-      <c r="B113" s="18" t="s">
+      <c r="C114" s="18"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="35"/>
+      <c r="B115" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="18"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="35"/>
+      <c r="B116" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="18"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="19"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="28"/>
+      <c r="B118" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="19"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="28"/>
+      <c r="B119" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C113" s="18"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="49"/>
-      <c r="B114" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C114" s="18"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="49"/>
-      <c r="B115" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" s="18"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="49"/>
-      <c r="B116" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C116" s="18"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117" s="20" t="s">
+      <c r="C119" s="19"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="28"/>
+      <c r="B120" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C117" s="19"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="42"/>
-      <c r="B118" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C118" s="19"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="42"/>
-      <c r="B119" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119" s="19"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="42"/>
-      <c r="B120" s="20" t="s">
+      <c r="C120" s="19"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="28"/>
+      <c r="B121" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="19"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="42"/>
-      <c r="B121" s="20" t="s">
+      <c r="C121" s="19"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="28"/>
+      <c r="B122" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="19"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="28"/>
+      <c r="B123" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C121" s="19"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="42"/>
-      <c r="B122" s="20" t="s">
+      <c r="C123" s="19"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="28"/>
+      <c r="B124" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C122" s="19"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="42"/>
-      <c r="B123" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C123" s="19"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="42"/>
-      <c r="B124" s="20" t="s">
+      <c r="C124" s="19"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="28"/>
+      <c r="B125" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C124" s="19"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="42"/>
-      <c r="B125" s="20" t="s">
+      <c r="C125" s="19"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="28"/>
+      <c r="B126" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C125" s="19"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="42"/>
-      <c r="B126" s="20" t="s">
+      <c r="C126" s="19"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="28"/>
+      <c r="B127" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="19"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="42"/>
-      <c r="B127" s="20" t="s">
+      <c r="C127" s="19"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="28"/>
+      <c r="B128" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="19"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="42"/>
-      <c r="B128" s="20" t="s">
+      <c r="C128" s="19"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="28"/>
+      <c r="B129" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="19"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="42"/>
-      <c r="B129" s="20" t="s">
+      <c r="C129" s="19"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="28"/>
+      <c r="B130" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="19"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="42"/>
-      <c r="B130" s="20" t="s">
+      <c r="C130" s="19"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="19"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B131" s="8" t="s">
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="29"/>
+      <c r="B132" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="4"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="43"/>
-      <c r="B132" s="8" t="s">
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="29"/>
+      <c r="B133" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="4"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="43"/>
-      <c r="B133" s="8" t="s">
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="29"/>
+      <c r="B134" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C133" s="4"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="43"/>
-      <c r="B134" s="8" t="s">
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="29"/>
+      <c r="B135" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="29"/>
+      <c r="B136" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="43"/>
-      <c r="B135" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="43"/>
-      <c r="B136" s="8" t="s">
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="29"/>
+      <c r="B137" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="4"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="43"/>
-      <c r="B137" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="44"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
+  <mergeCells count="20">
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A43:A59"/>
@@ -2299,6 +2292,14 @@
     <mergeCell ref="D3:D22"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
   <si>
     <t>User Role</t>
   </si>
@@ -788,6 +788,51 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,51 +855,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,7 +1134,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="D60" sqref="D60:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1174,12 +1174,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1188,62 +1188,62 @@
       <c r="C3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="28" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="41"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="41"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="41"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="41"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1252,130 +1252,130 @@
       <c r="C9" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="48"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="48"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="48"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="48"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="48"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="48"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="48"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="48"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="48"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="48"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="48"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="49"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1384,39 +1384,39 @@
       <c r="C22" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="39"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="39"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="28" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="39"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="39"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
@@ -1425,53 +1425,53 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="39"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="39"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="39"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="28" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="39"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="39"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1480,53 +1480,53 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="45"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="45"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="28" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="45"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="36"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="45"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="36"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="46"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1535,35 +1535,35 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="43"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="43"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="43"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="43"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1577,127 +1577,127 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="38"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="42" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="38"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="50"/>
+      <c r="D45" s="42"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="38"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="50"/>
+      <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="38"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="50"/>
+      <c r="D47" s="42"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="38"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="38"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="38"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="38"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="38"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="38"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="38"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="28" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="38"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="36"/>
+      <c r="D55" s="28"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="38"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="38"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="38"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="8" t="s">
         <v>66</v>
       </c>
@@ -1709,72 +1709,80 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="38"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="12"/>
+      <c r="C60" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="32"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="42"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="32"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="32"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="32"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="32"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="32"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="32"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1783,175 +1791,175 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="33"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="33"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="33"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="33"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="33"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="33"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="33"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="33"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="33"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="33"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="33"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="33"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="33"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="33"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="33"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="33"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="33"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="33"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="33"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="33"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="33"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="33"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="33"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="33"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1960,35 +1968,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="34"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="34"/>
+      <c r="A95" s="49"/>
       <c r="B95" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="34"/>
+      <c r="A96" s="49"/>
       <c r="B96" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="34"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="35" t="s">
+      <c r="A98" s="50" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -1997,133 +2005,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="35"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="35"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="35"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="35"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="35"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="35"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="35"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="35"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="35"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="35"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="35"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="35"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="35"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="35"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="35"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="35"/>
+      <c r="A114" s="50"/>
       <c r="B114" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="35"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="35"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="43" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2132,98 +2140,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="28"/>
+      <c r="A118" s="43"/>
       <c r="B118" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="28"/>
+      <c r="A119" s="43"/>
       <c r="B119" s="20" t="s">
         <v>125</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="28"/>
+      <c r="A120" s="43"/>
       <c r="B120" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="28"/>
+      <c r="A121" s="43"/>
       <c r="B121" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="28"/>
+      <c r="A122" s="43"/>
       <c r="B122" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="28"/>
+      <c r="A123" s="43"/>
       <c r="B123" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="28"/>
+      <c r="A124" s="43"/>
       <c r="B124" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="28"/>
+      <c r="A125" s="43"/>
       <c r="B125" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="28"/>
+      <c r="A126" s="43"/>
       <c r="B126" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="28"/>
+      <c r="A127" s="43"/>
       <c r="B127" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="28"/>
+      <c r="A128" s="43"/>
       <c r="B128" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="28"/>
+      <c r="A129" s="43"/>
       <c r="B129" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="28"/>
+      <c r="A130" s="43"/>
       <c r="B130" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2232,54 +2240,62 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="29"/>
+      <c r="A132" s="44"/>
       <c r="B132" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="29"/>
+      <c r="A133" s="44"/>
       <c r="B133" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="29"/>
+      <c r="A134" s="44"/>
       <c r="B134" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="29"/>
+      <c r="A135" s="44"/>
       <c r="B135" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="29"/>
+      <c r="A136" s="44"/>
       <c r="B136" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="29"/>
+      <c r="A137" s="44"/>
       <c r="B137" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
+      <c r="A138" s="45"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A43:A59"/>
@@ -2293,13 +2309,6 @@
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="D44:D47"/>
     <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="155">
   <si>
     <t>User Role</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Customer Statement</t>
+  </si>
+  <si>
+    <t>Dealer Setup</t>
   </si>
 </sst>
 </file>
@@ -788,6 +791,33 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,33 +858,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,7 +1137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1142,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60:D61"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1174,12 +1177,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1188,62 +1191,62 @@
       <c r="C3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="37" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="33"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="33"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="33"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1252,1063 +1255,1071 @@
       <c r="C9" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="40"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="40"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="40"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="40"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="40"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="40"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="40"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="40"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="40"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="40"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="40"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="41"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="31"/>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="37"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="40"/>
+      <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="31"/>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="40"/>
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C25" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="31"/>
-      <c r="B25" s="9" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="40"/>
+      <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="31"/>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="37"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="40"/>
+      <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="31"/>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="40"/>
+      <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="31"/>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="40"/>
+      <c r="B29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="31"/>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="40"/>
+      <c r="B30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="28" t="s">
+      <c r="C30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="31"/>
-      <c r="B30" s="9" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="40"/>
+      <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="31"/>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="40"/>
+      <c r="B32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="36" t="s">
+      <c r="C32" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="37"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="23"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="37"/>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="46"/>
+      <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="23"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="37"/>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="46"/>
+      <c r="B35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="28" t="s">
+      <c r="C35" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="37"/>
-      <c r="B35" s="10" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="46"/>
+      <c r="B36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="28"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="37"/>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="46"/>
+      <c r="B37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="28"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="38"/>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="37"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="47"/>
+      <c r="B38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="23"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="34" t="s">
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B39" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="24"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="35"/>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="24"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="44"/>
+      <c r="B40" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="24"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="35"/>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="24"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="44"/>
+      <c r="B41" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="24"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="35"/>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="24"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="44"/>
+      <c r="B42" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="24"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="35"/>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="24"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="44"/>
+      <c r="B43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="24"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="30" t="s">
+      <c r="C43" s="24"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="27" t="s">
+      <c r="C44" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="30"/>
-      <c r="B44" s="8" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="39"/>
+      <c r="B45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="42" t="s">
+      <c r="C45" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="8" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="39"/>
+      <c r="B46" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="42"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="30"/>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="39"/>
+      <c r="B47" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="30"/>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="39"/>
+      <c r="B48" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="42"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="30"/>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="39"/>
+      <c r="B49" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="22"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="30"/>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="22"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="39"/>
+      <c r="B50" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="22"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="30"/>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="22"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="39"/>
+      <c r="B51" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="22"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="30"/>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="22"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="39"/>
+      <c r="B52" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="22"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="30"/>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="22"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="39"/>
+      <c r="B53" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="22"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="30"/>
-      <c r="B53" s="8" t="s">
+      <c r="C53" s="22"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="39"/>
+      <c r="B54" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="22"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="30"/>
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="22"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="39"/>
+      <c r="B55" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="28" t="s">
+      <c r="C55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="30"/>
-      <c r="B55" s="8" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="39"/>
+      <c r="B56" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="28"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="30"/>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="37"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="39"/>
+      <c r="B57" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="30"/>
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="39"/>
+      <c r="B58" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="30"/>
-      <c r="B58" s="8" t="s">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="39"/>
+      <c r="B59" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="27" t="s">
+      <c r="C59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="30"/>
-      <c r="B59" s="8" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="39"/>
+      <c r="B60" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="46" t="s">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B61" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="42" t="s">
+      <c r="C61" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="47"/>
-      <c r="B61" s="13" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="33"/>
+      <c r="B62" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="42"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="47"/>
-      <c r="B62" s="13" t="s">
+      <c r="C62" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="28"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="33"/>
+      <c r="B63" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="12"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="47"/>
-      <c r="B63" s="13" t="s">
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="33"/>
+      <c r="B64" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="12"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="47"/>
-      <c r="B64" s="13" t="s">
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="33"/>
+      <c r="B65" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="12"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="47"/>
-      <c r="B65" s="13" t="s">
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="33"/>
+      <c r="B66" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="12"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="47"/>
-      <c r="B66" s="13" t="s">
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="33"/>
+      <c r="B67" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="47"/>
-      <c r="B67" s="13" t="s">
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="33"/>
+      <c r="B68" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="12"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="48" t="s">
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B69" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="14"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="48"/>
-      <c r="B69" s="15" t="s">
+      <c r="C69" s="14"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="34"/>
+      <c r="B70" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="14"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="48"/>
-      <c r="B70" s="15" t="s">
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="34"/>
+      <c r="B71" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="14"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="48"/>
-      <c r="B71" s="15" t="s">
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="34"/>
+      <c r="B72" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="14"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="48"/>
-      <c r="B72" s="15" t="s">
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="34"/>
+      <c r="B73" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="48"/>
-      <c r="B73" s="15" t="s">
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="34"/>
+      <c r="B74" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="14"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="48"/>
-      <c r="B74" s="15" t="s">
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="34"/>
+      <c r="B75" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="14"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="48"/>
-      <c r="B75" s="15" t="s">
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="34"/>
+      <c r="B76" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="14"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="48"/>
-      <c r="B76" s="15" t="s">
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="34"/>
+      <c r="B77" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="14"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="48"/>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="34"/>
+      <c r="B78" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="14"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="48"/>
-      <c r="B78" s="15" t="s">
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="34"/>
+      <c r="B79" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="14"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="48"/>
-      <c r="B79" s="15" t="s">
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="34"/>
+      <c r="B80" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="48"/>
-      <c r="B80" s="15" t="s">
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="34"/>
+      <c r="B81" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="14"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="48"/>
-      <c r="B81" s="15" t="s">
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="34"/>
+      <c r="B82" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="14"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="48"/>
-      <c r="B82" s="15" t="s">
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="34"/>
+      <c r="B83" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="14"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="48"/>
-      <c r="B83" s="15" t="s">
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="34"/>
+      <c r="B84" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="14"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="48"/>
-      <c r="B84" s="15" t="s">
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="34"/>
+      <c r="B85" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="14"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="48"/>
-      <c r="B85" s="15" t="s">
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="34"/>
+      <c r="B86" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="14"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="48"/>
-      <c r="B86" s="15" t="s">
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="34"/>
+      <c r="B87" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="14"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="48"/>
-      <c r="B87" s="15" t="s">
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="34"/>
+      <c r="B88" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="14"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="48"/>
-      <c r="B88" s="15" t="s">
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="34"/>
+      <c r="B89" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="14"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="48"/>
-      <c r="B89" s="15" t="s">
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="34"/>
+      <c r="B90" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="14"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="48"/>
-      <c r="B90" s="15" t="s">
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="34"/>
+      <c r="B91" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="48"/>
-      <c r="B91" s="15" t="s">
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="34"/>
+      <c r="B92" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="14"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="48"/>
-      <c r="B92" s="15" t="s">
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="34"/>
+      <c r="B93" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="14"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="49" t="s">
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B94" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="17"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="49"/>
-      <c r="B94" s="16" t="s">
+      <c r="C94" s="17"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="35"/>
+      <c r="B95" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="17"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="49"/>
-      <c r="B95" s="16" t="s">
+      <c r="C95" s="17"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="35"/>
+      <c r="B96" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="17"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="49"/>
-      <c r="B96" s="16" t="s">
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="35"/>
+      <c r="B97" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="17"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="49"/>
-      <c r="B97" s="16" t="s">
+      <c r="C97" s="17"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="35"/>
+      <c r="B98" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="17"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="50" t="s">
+      <c r="C98" s="17"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B99" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="18"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="50"/>
-      <c r="B99" s="18" t="s">
+      <c r="C99" s="18"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="36"/>
+      <c r="B100" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="18"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="50"/>
-      <c r="B100" s="18" t="s">
+      <c r="C100" s="18"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="36"/>
+      <c r="B101" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="18"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="50"/>
-      <c r="B101" s="18" t="s">
+      <c r="C101" s="18"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="36"/>
+      <c r="B102" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="18"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="50"/>
-      <c r="B102" s="18" t="s">
+      <c r="C102" s="18"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="36"/>
+      <c r="B103" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="18"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="50"/>
-      <c r="B103" s="18" t="s">
+      <c r="C103" s="18"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="36"/>
+      <c r="B104" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="18"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="50"/>
-      <c r="B104" s="18" t="s">
+      <c r="C104" s="18"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="36"/>
+      <c r="B105" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="18"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="50"/>
-      <c r="B105" s="18" t="s">
+      <c r="C105" s="18"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="36"/>
+      <c r="B106" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="18"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="50"/>
-      <c r="B106" s="18" t="s">
+      <c r="C106" s="18"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="36"/>
+      <c r="B107" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="18"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="50"/>
-      <c r="B107" s="18" t="s">
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="36"/>
+      <c r="B108" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="18"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="50"/>
-      <c r="B108" s="18" t="s">
+      <c r="C108" s="18"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="36"/>
+      <c r="B109" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="18"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="50"/>
-      <c r="B109" s="18" t="s">
+      <c r="C109" s="18"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="36"/>
+      <c r="B110" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="18"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="50"/>
-      <c r="B110" s="18" t="s">
+      <c r="C110" s="18"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="36"/>
+      <c r="B111" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="18"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="50"/>
-      <c r="B111" s="18" t="s">
+      <c r="C111" s="18"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="36"/>
+      <c r="B112" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="18"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="50"/>
-      <c r="B112" s="18" t="s">
+      <c r="C112" s="18"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="36"/>
+      <c r="B113" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="18"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="50"/>
-      <c r="B113" s="18" t="s">
+      <c r="C113" s="18"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="36"/>
+      <c r="B114" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C113" s="18"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="50"/>
-      <c r="B114" s="18" t="s">
+      <c r="C114" s="18"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="36"/>
+      <c r="B115" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="18"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="50"/>
-      <c r="B115" s="18" t="s">
+      <c r="C115" s="18"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="36"/>
+      <c r="B116" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="18"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="50"/>
-      <c r="B116" s="18" t="s">
+      <c r="C116" s="18"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="36"/>
+      <c r="B117" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C116" s="18"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="43" t="s">
+      <c r="C117" s="18"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B118" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="19"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="43"/>
-      <c r="B118" s="20" t="s">
+      <c r="C118" s="19"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="29"/>
+      <c r="B119" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="19"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="43"/>
-      <c r="B119" s="20" t="s">
+      <c r="C119" s="19"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="29"/>
+      <c r="B120" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C119" s="19"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="43"/>
-      <c r="B120" s="20" t="s">
+      <c r="C120" s="19"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="29"/>
+      <c r="B121" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="19"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="43"/>
-      <c r="B121" s="20" t="s">
+      <c r="C121" s="19"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="29"/>
+      <c r="B122" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="19"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="43"/>
-      <c r="B122" s="20" t="s">
+      <c r="C122" s="19"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="29"/>
+      <c r="B123" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="19"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="43"/>
-      <c r="B123" s="20" t="s">
+      <c r="C123" s="19"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="29"/>
+      <c r="B124" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C123" s="19"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="43"/>
-      <c r="B124" s="20" t="s">
+      <c r="C124" s="19"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="29"/>
+      <c r="B125" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="19"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="43"/>
-      <c r="B125" s="20" t="s">
+      <c r="C125" s="19"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="29"/>
+      <c r="B126" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="19"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="43"/>
-      <c r="B126" s="20" t="s">
+      <c r="C126" s="19"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="29"/>
+      <c r="B127" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="19"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="43"/>
-      <c r="B127" s="20" t="s">
+      <c r="C127" s="19"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="29"/>
+      <c r="B128" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="19"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="43"/>
-      <c r="B128" s="20" t="s">
+      <c r="C128" s="19"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="29"/>
+      <c r="B129" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="19"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="43"/>
-      <c r="B129" s="20" t="s">
+      <c r="C129" s="19"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="29"/>
+      <c r="B130" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="19"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="43"/>
-      <c r="B130" s="20" t="s">
+      <c r="C130" s="19"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="29"/>
+      <c r="B131" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="19"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="44" t="s">
+      <c r="C131" s="19"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B132" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="4"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="44"/>
-      <c r="B132" s="8" t="s">
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="30"/>
+      <c r="B133" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="4"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="44"/>
-      <c r="B133" s="8" t="s">
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="30"/>
+      <c r="B134" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="4"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="44"/>
-      <c r="B134" s="8" t="s">
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="30"/>
+      <c r="B135" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="44"/>
-      <c r="B135" s="8" t="s">
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="30"/>
+      <c r="B136" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="44"/>
-      <c r="B136" s="8" t="s">
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="30"/>
+      <c r="B137" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="4"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="44"/>
-      <c r="B137" s="8" t="s">
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="30"/>
+      <c r="B138" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C137" s="4"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="45"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="45"/>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="31"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
-    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A44:A60"/>
+    <mergeCell ref="A23:A32"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D3:D22"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D3:D23"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A118:A131"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="A69:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
   <si>
     <t>User Role</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Payment Record</t>
   </si>
   <si>
-    <t>Store Transfer</t>
-  </si>
-  <si>
     <t>Movement Log</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>Dealer Setup</t>
+  </si>
+  <si>
+    <t>Product Transfer</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1170,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1201,7 +1201,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="37"/>
     </row>
@@ -1211,17 +1211,17 @@
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="42"/>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="37"/>
     </row>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="37"/>
     </row>
@@ -1241,7 +1241,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="37"/>
     </row>
@@ -1253,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="37"/>
     </row>
@@ -1263,7 +1263,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="37"/>
     </row>
@@ -1273,7 +1273,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="37"/>
     </row>
@@ -1283,7 +1283,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="37"/>
     </row>
@@ -1293,7 +1293,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="37"/>
     </row>
@@ -1303,7 +1303,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="37"/>
     </row>
@@ -1313,17 +1313,17 @@
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="49"/>
       <c r="B16" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="37"/>
     </row>
@@ -1333,17 +1333,17 @@
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="49"/>
       <c r="B18" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="37"/>
     </row>
@@ -1353,7 +1353,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="37"/>
     </row>
@@ -1363,7 +1363,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="37"/>
     </row>
@@ -1373,16 +1373,18 @@
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="50"/>
       <c r="B22" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="22"/>
+        <v>153</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>145</v>
+      </c>
       <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4">
@@ -1393,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="37"/>
     </row>
@@ -1410,10 +1412,10 @@
         <v>35</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1422,7 +1424,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="37"/>
     </row>
@@ -1432,7 +1434,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1455,10 +1457,10 @@
         <v>40</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1467,7 +1469,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="37"/>
     </row>
@@ -1477,7 +1479,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="37"/>
     </row>
@@ -1486,27 +1488,30 @@
         <v>11</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="23"/>
+        <v>154</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="46"/>
       <c r="B34" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="46"/>
       <c r="B35" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1515,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="37"/>
     </row>
@@ -1525,14 +1530,14 @@
         <v>5</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="47"/>
       <c r="B38" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="23"/>
     </row>
@@ -1541,35 +1546,35 @@
         <v>12</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="44"/>
       <c r="B40" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="44"/>
       <c r="B41" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="44"/>
       <c r="B42" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="44"/>
       <c r="B43" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="24"/>
     </row>
@@ -1578,151 +1583,151 @@
         <v>7</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="39"/>
       <c r="B45" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="39"/>
       <c r="B46" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="39"/>
       <c r="B47" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="39"/>
       <c r="B48" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="39"/>
       <c r="B49" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="39"/>
       <c r="B50" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="39"/>
       <c r="B51" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="39"/>
       <c r="B52" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="39"/>
       <c r="B53" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="39"/>
       <c r="B54" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="39"/>
       <c r="B55" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="39"/>
       <c r="B56" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="39"/>
       <c r="B57" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="39"/>
       <c r="B58" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="39"/>
       <c r="B59" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="39"/>
       <c r="B60" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="4"/>
     </row>
@@ -1731,64 +1736,64 @@
         <v>13</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="33"/>
       <c r="B62" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33"/>
       <c r="B63" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="33"/>
       <c r="B64" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="33"/>
       <c r="B65" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="33"/>
       <c r="B66" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="33"/>
       <c r="B67" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="33"/>
       <c r="B68" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="12"/>
     </row>
@@ -1797,175 +1802,175 @@
         <v>14</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="34"/>
       <c r="B70" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="34"/>
       <c r="B71" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="34"/>
       <c r="B72" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="34"/>
       <c r="B73" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="34"/>
       <c r="B74" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="34"/>
       <c r="B75" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="34"/>
       <c r="B76" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="34"/>
       <c r="B77" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="34"/>
       <c r="B78" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="34"/>
       <c r="B79" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="34"/>
       <c r="B80" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="34"/>
       <c r="B81" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="34"/>
       <c r="B82" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="34"/>
       <c r="B83" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="34"/>
       <c r="B84" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="34"/>
       <c r="B85" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="34"/>
       <c r="B86" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="34"/>
       <c r="B87" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="34"/>
       <c r="B88" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="34"/>
       <c r="B89" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="34"/>
       <c r="B90" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="34"/>
       <c r="B91" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="34"/>
       <c r="B92" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="34"/>
       <c r="B93" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" s="14"/>
     </row>
@@ -1974,35 +1979,35 @@
         <v>15</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="35"/>
       <c r="B95" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="35"/>
       <c r="B96" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="35"/>
       <c r="B97" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="35"/>
       <c r="B98" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" s="17"/>
     </row>
@@ -2011,133 +2016,133 @@
         <v>16</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="36"/>
       <c r="B100" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="36"/>
       <c r="B101" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="36"/>
       <c r="B102" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="36"/>
       <c r="B103" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="36"/>
       <c r="B104" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="36"/>
       <c r="B105" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="36"/>
       <c r="B106" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="36"/>
       <c r="B107" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="36"/>
       <c r="B108" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="36"/>
       <c r="B109" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="36"/>
       <c r="B110" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="36"/>
       <c r="B111" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="36"/>
       <c r="B112" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="36"/>
       <c r="B113" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="36"/>
       <c r="B114" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="36"/>
       <c r="B115" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="36"/>
       <c r="B116" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="36"/>
       <c r="B117" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C117" s="18"/>
     </row>
@@ -2146,98 +2151,98 @@
         <v>17</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="29"/>
       <c r="B119" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="29"/>
       <c r="B120" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="29"/>
       <c r="B121" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="29"/>
       <c r="B122" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="29"/>
       <c r="B123" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="29"/>
       <c r="B124" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="29"/>
       <c r="B125" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="29"/>
       <c r="B126" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="29"/>
       <c r="B127" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="29"/>
       <c r="B128" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="29"/>
       <c r="B129" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="29"/>
       <c r="B130" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="29"/>
       <c r="B131" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C131" s="19"/>
     </row>
@@ -2246,49 +2251,49 @@
         <v>18</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="30"/>
       <c r="B133" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="30"/>
       <c r="B134" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="30"/>
       <c r="B135" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="30"/>
       <c r="B136" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="30"/>
       <c r="B137" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="30"/>
       <c r="B138" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C138" s="4"/>
     </row>
@@ -2306,12 +2311,12 @@
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A33:A38"/>
-    <mergeCell ref="D30:D32"/>
     <mergeCell ref="D3:D23"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="A9:A22"/>
+    <mergeCell ref="D30:D33"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="A118:A131"/>
     <mergeCell ref="A132:A138"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
   <si>
     <t>User Role</t>
   </si>
@@ -129,18 +129,9 @@
     <t>Payment To Company</t>
   </si>
   <si>
-    <t>Lifting Challan Report</t>
-  </si>
-  <si>
     <t>Lifting Record Report</t>
   </si>
   <si>
-    <t>Return Challan Report</t>
-  </si>
-  <si>
-    <t>Return Record Report</t>
-  </si>
-  <si>
     <t>Company Statement Report</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>Payment Record</t>
   </si>
   <si>
-    <t>Movement Log</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stock Status </t>
   </si>
   <si>
@@ -246,9 +234,6 @@
     <t>Installment Record History Report</t>
   </si>
   <si>
-    <t>Dealer Registration</t>
-  </si>
-  <si>
     <t>Dealer product Requisition</t>
   </si>
   <si>
@@ -484,6 +469,18 @@
   </si>
   <si>
     <t>Product Transfer</t>
+  </si>
+  <si>
+    <t>Lifting Return Vouchar Report</t>
+  </si>
+  <si>
+    <t>Lifting Vouchar Report</t>
+  </si>
+  <si>
+    <t>Lifting Return Record Report</t>
+  </si>
+  <si>
+    <t>Transfer History</t>
   </si>
 </sst>
 </file>
@@ -791,6 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,6 +819,12 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,15 +853,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1170,1161 +1165,1165 @@
         <v>3</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="38"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="45"/>
+      <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="42"/>
-      <c r="B6" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="42"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="49"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="49"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="49"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="49"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="49"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="49"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="49"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="49"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="49"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="49"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="49"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="49"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="50"/>
-      <c r="B22" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="37"/>
+      <c r="A22" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="40" t="s">
-        <v>10</v>
-      </c>
+      <c r="A23" s="43"/>
       <c r="B23" s="9" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="40"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="40"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="9" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>147</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="40"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="40"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="38"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="43"/>
+      <c r="B28" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="38"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="43"/>
+      <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="40"/>
-      <c r="B28" s="9" t="s">
+      <c r="C29" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="38"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="43"/>
+      <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="40"/>
-      <c r="B29" s="9" t="s">
+      <c r="C30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="38"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="43"/>
+      <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="40"/>
-      <c r="B30" s="9" t="s">
+      <c r="C31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="38"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="49"/>
+      <c r="B33" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="38"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="49"/>
+      <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="37" t="s">
+      <c r="C34" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="38"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="49"/>
+      <c r="B35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="38"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="49"/>
+      <c r="B36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="38"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="50"/>
+      <c r="B37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="38"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="24"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="47"/>
+      <c r="B39" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="24"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="47"/>
+      <c r="B40" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="24"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="47"/>
+      <c r="B41" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="24"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="47"/>
+      <c r="B42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="24"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="42"/>
+      <c r="B44" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="42"/>
+      <c r="B45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="42"/>
+      <c r="B46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="29"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="42"/>
+      <c r="B47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="42"/>
+      <c r="B48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="22"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="42"/>
+      <c r="B49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="22"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="42"/>
+      <c r="B50" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="22"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="42"/>
+      <c r="B51" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="22"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="42"/>
+      <c r="B52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="22"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="42"/>
+      <c r="B53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="22"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="42"/>
+      <c r="B54" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="40"/>
-      <c r="B31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="40"/>
-      <c r="B32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="37"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="37"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="46"/>
-      <c r="B34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="23"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="46"/>
-      <c r="B35" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="46"/>
-      <c r="B36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="37"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="46"/>
-      <c r="B37" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="37"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="47"/>
-      <c r="B38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="23"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="24"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="44"/>
-      <c r="B40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="24"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="44"/>
-      <c r="B41" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="24"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="44"/>
-      <c r="B42" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="24"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="44"/>
-      <c r="B43" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="24"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="39"/>
-      <c r="B45" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="39"/>
-      <c r="B46" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="28"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="39"/>
-      <c r="B47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="28"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="39"/>
-      <c r="B48" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="39"/>
-      <c r="B49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="22"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="39"/>
-      <c r="B50" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="22"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="39"/>
-      <c r="B51" s="8" t="s">
+      <c r="C54" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="42"/>
+      <c r="B55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="22"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="39"/>
-      <c r="B52" s="8" t="s">
+      <c r="C55" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="38"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="42"/>
+      <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="22"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="39"/>
-      <c r="B53" s="8" t="s">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="42"/>
+      <c r="B57" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="22"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="39"/>
-      <c r="B54" s="8" t="s">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="42"/>
+      <c r="B58" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="22"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="39"/>
-      <c r="B55" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="39"/>
-      <c r="B56" s="8" t="s">
+      <c r="C58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="42"/>
+      <c r="B59" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" s="37"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="39"/>
-      <c r="B57" s="8" t="s">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="39"/>
-      <c r="B58" s="8" t="s">
+      <c r="C60" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="34"/>
+      <c r="B61" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="39"/>
-      <c r="B59" s="8" t="s">
+      <c r="C61" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="29"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="34"/>
+      <c r="B62" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="39"/>
-      <c r="B60" s="8" t="s">
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="34"/>
+      <c r="B63" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="13" t="s">
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="34"/>
+      <c r="B64" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="33"/>
-      <c r="B62" s="13" t="s">
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="34"/>
+      <c r="B65" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="28"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="33"/>
-      <c r="B63" s="13" t="s">
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="34"/>
+      <c r="B66" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="12"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="33"/>
-      <c r="B64" s="13" t="s">
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="34"/>
+      <c r="B67" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="12"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="33"/>
-      <c r="B65" s="13" t="s">
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="35"/>
+      <c r="B69" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="12"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="33"/>
-      <c r="B66" s="13" t="s">
+      <c r="C69" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="35"/>
+      <c r="B70" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="33"/>
-      <c r="B67" s="13" t="s">
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="35"/>
+      <c r="B71" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="12"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="33"/>
-      <c r="B68" s="13" t="s">
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="35"/>
+      <c r="B72" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="12"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="15" t="s">
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="35"/>
+      <c r="B73" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="14"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="34"/>
-      <c r="B70" s="15" t="s">
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="35"/>
+      <c r="B74" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="14"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="34"/>
-      <c r="B71" s="15" t="s">
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="35"/>
+      <c r="B75" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="14"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="34"/>
-      <c r="B72" s="15" t="s">
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="35"/>
+      <c r="B76" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="34"/>
-      <c r="B73" s="15" t="s">
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="35"/>
+      <c r="B77" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="14"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="34"/>
-      <c r="B74" s="15" t="s">
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="35"/>
+      <c r="B78" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="14"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="34"/>
-      <c r="B75" s="15" t="s">
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="35"/>
+      <c r="B79" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="14"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="34"/>
-      <c r="B76" s="15" t="s">
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="35"/>
+      <c r="B80" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="14"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="34"/>
-      <c r="B77" s="15" t="s">
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="35"/>
+      <c r="B81" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="14"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="34"/>
-      <c r="B78" s="15" t="s">
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="35"/>
+      <c r="B82" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="14"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="34"/>
-      <c r="B79" s="15" t="s">
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="35"/>
+      <c r="B83" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="34"/>
-      <c r="B80" s="15" t="s">
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="35"/>
+      <c r="B84" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="14"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="34"/>
-      <c r="B81" s="15" t="s">
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="35"/>
+      <c r="B85" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="14"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="34"/>
-      <c r="B82" s="15" t="s">
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="35"/>
+      <c r="B86" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="14"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="34"/>
-      <c r="B83" s="15" t="s">
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="35"/>
+      <c r="B87" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="14"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="34"/>
-      <c r="B84" s="15" t="s">
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="35"/>
+      <c r="B88" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="14"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="34"/>
-      <c r="B85" s="15" t="s">
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="35"/>
+      <c r="B89" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="14"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="34"/>
-      <c r="B86" s="15" t="s">
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="35"/>
+      <c r="B90" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="14"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="34"/>
-      <c r="B87" s="15" t="s">
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="35"/>
+      <c r="B91" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="14"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="34"/>
-      <c r="B88" s="15" t="s">
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="35"/>
+      <c r="B92" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="14"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="34"/>
-      <c r="B89" s="15" t="s">
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="14"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="15" t="s">
+      <c r="C93" s="17"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="36"/>
+      <c r="B94" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="34"/>
-      <c r="B91" s="15" t="s">
+      <c r="C94" s="17"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="36"/>
+      <c r="B95" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="14"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="34"/>
-      <c r="B92" s="15" t="s">
+      <c r="C95" s="17"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="36"/>
+      <c r="B96" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="14"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="34"/>
-      <c r="B93" s="15" t="s">
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="36"/>
+      <c r="B97" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="14"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="16" t="s">
+      <c r="C97" s="17"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="17"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="35"/>
-      <c r="B95" s="16" t="s">
+      <c r="C98" s="18"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="37"/>
+      <c r="B99" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="17"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="35"/>
-      <c r="B96" s="16" t="s">
+      <c r="C99" s="18"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="37"/>
+      <c r="B100" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="17"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="35"/>
-      <c r="B97" s="16" t="s">
+      <c r="C100" s="18"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="37"/>
+      <c r="B101" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="17"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="35"/>
-      <c r="B98" s="16" t="s">
+      <c r="C101" s="18"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="37"/>
+      <c r="B102" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="17"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B99" s="18" t="s">
+      <c r="C102" s="18"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="37"/>
+      <c r="B103" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="18"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="36"/>
-      <c r="B100" s="18" t="s">
+      <c r="C103" s="18"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="37"/>
+      <c r="B104" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="18"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="36"/>
-      <c r="B101" s="18" t="s">
+      <c r="C104" s="18"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="37"/>
+      <c r="B105" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="18"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="36"/>
-      <c r="B102" s="18" t="s">
+      <c r="C105" s="18"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="37"/>
+      <c r="B106" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="18"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="18" t="s">
+      <c r="C106" s="18"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="37"/>
+      <c r="B107" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="18"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="36"/>
-      <c r="B104" s="18" t="s">
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="37"/>
+      <c r="B108" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="18"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="36"/>
-      <c r="B105" s="18" t="s">
+      <c r="C108" s="18"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="37"/>
+      <c r="B109" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="18"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="36"/>
-      <c r="B106" s="18" t="s">
+      <c r="C109" s="18"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="37"/>
+      <c r="B110" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="18"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="36"/>
-      <c r="B107" s="18" t="s">
+      <c r="C110" s="18"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="37"/>
+      <c r="B111" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="18"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="36"/>
-      <c r="B108" s="18" t="s">
+      <c r="C111" s="18"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="37"/>
+      <c r="B112" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="18"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="36"/>
-      <c r="B109" s="18" t="s">
+      <c r="C112" s="18"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="37"/>
+      <c r="B113" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="18"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="37"/>
+      <c r="B114" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="18"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="36"/>
-      <c r="B110" s="18" t="s">
+      <c r="C114" s="18"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="37"/>
+      <c r="B115" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="18"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="36"/>
-      <c r="B111" s="18" t="s">
+      <c r="C115" s="18"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="37"/>
+      <c r="B116" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C111" s="18"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="36"/>
-      <c r="B112" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C112" s="18"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="36"/>
-      <c r="B113" s="18" t="s">
+      <c r="C116" s="18"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="19"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="30"/>
+      <c r="B118" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="19"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="30"/>
+      <c r="B119" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="18"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="36"/>
-      <c r="B114" s="18" t="s">
+      <c r="C119" s="19"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="30"/>
+      <c r="B120" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="19"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="30"/>
+      <c r="B121" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C114" s="18"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="36"/>
-      <c r="B115" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C115" s="18"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="36"/>
-      <c r="B116" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C116" s="18"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="36"/>
-      <c r="B117" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C117" s="18"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B118" s="20" t="s">
+      <c r="C121" s="19"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="30"/>
+      <c r="B122" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" s="19"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="30"/>
+      <c r="B123" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" s="19"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="30"/>
+      <c r="B124" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="19"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="29"/>
-      <c r="B119" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C119" s="19"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="29"/>
-      <c r="B120" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" s="19"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="29"/>
-      <c r="B121" s="20" t="s">
+      <c r="C124" s="19"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="30"/>
+      <c r="B125" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="19"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="29"/>
-      <c r="B122" s="20" t="s">
+      <c r="C125" s="19"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="30"/>
+      <c r="B126" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C122" s="19"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="29"/>
-      <c r="B123" s="20" t="s">
+      <c r="C126" s="19"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="30"/>
+      <c r="B127" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="19"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="30"/>
+      <c r="B128" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C123" s="19"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="29"/>
-      <c r="B124" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C124" s="19"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="29"/>
-      <c r="B125" s="20" t="s">
+      <c r="C128" s="19"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="30"/>
+      <c r="B129" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C125" s="19"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="29"/>
-      <c r="B126" s="20" t="s">
+      <c r="C129" s="19"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="30"/>
+      <c r="B130" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C126" s="19"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="29"/>
-      <c r="B127" s="20" t="s">
+      <c r="C130" s="19"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C127" s="19"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="29"/>
-      <c r="B128" s="20" t="s">
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="31"/>
+      <c r="B132" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C128" s="19"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="29"/>
-      <c r="B129" s="20" t="s">
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="31"/>
+      <c r="B133" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="19"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="29"/>
-      <c r="B130" s="20" t="s">
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="31"/>
+      <c r="B134" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C130" s="19"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="29"/>
-      <c r="B131" s="20" t="s">
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="31"/>
+      <c r="B135" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="31"/>
+      <c r="B136" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C131" s="19"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" s="8" t="s">
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="31"/>
+      <c r="B137" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="4"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="30"/>
-      <c r="B133" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C133" s="4"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="30"/>
-      <c r="B134" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="30"/>
-      <c r="B135" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="30"/>
-      <c r="B136" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C136" s="4"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="30"/>
-      <c r="B137" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="30"/>
-      <c r="B138" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C138" s="4"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="31"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D25:D26"/>
+  <mergeCells count="18">
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="D3:D37"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A44:A60"/>
-    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="A22:A31"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="D3:D23"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A118:A131"/>
-    <mergeCell ref="A132:A138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="A69:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A117"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="154">
   <si>
     <t>User Role</t>
   </si>
@@ -792,6 +792,45 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,45 +853,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1172,12 +1172,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1186,62 +1186,62 @@
       <c r="C3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="30" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="45"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="45"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="45"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="45"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1250,130 +1250,130 @@
       <c r="C9" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="40"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="40"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="40"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="40"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="40"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="40"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="40"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="40"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="40"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="40"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="40"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="38"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="40"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1382,100 +1382,100 @@
       <c r="C22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="43"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="43"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="43"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="43"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="38"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="43"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="43"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="43"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="43"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="38"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="43"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1484,60 +1484,60 @@
       <c r="C32" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="49"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="38"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="49"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="49"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="38"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="49"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="50"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1546,35 +1546,35 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="47"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="47"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="47"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="47"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="42"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="8" t="s">
         <v>48</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="42"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="8" t="s">
         <v>49</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="42"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="42"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="8" t="s">
         <v>51</v>
       </c>
@@ -1630,85 +1630,85 @@
       <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="42"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="42"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="42"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="42"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="42"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="42"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="42"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="30" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="42"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="38"/>
+      <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="42"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="42"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="42"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="8" t="s">
         <v>61</v>
       </c>
@@ -1720,14 +1720,14 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="42"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1741,7 +1741,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="34"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="13" t="s">
         <v>64</v>
       </c>
@@ -1751,49 +1751,51 @@
       <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="34"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="12" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="34"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="34"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="34"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="34"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="34"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1807,7 +1809,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="35"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="15" t="s">
         <v>71</v>
       </c>
@@ -1816,168 +1818,168 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="35"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="35"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="35"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="35"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="35"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="35"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="35"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="35"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="35"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="35"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="35"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="35"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="35"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="35"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="35"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="35"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="35"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="35"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="35"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="35"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="35"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="36" t="s">
+      <c r="A93" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1986,35 +1988,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="36"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="36"/>
+      <c r="A95" s="49"/>
       <c r="B95" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="36"/>
+      <c r="A96" s="49"/>
       <c r="B96" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="36"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="50" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -2023,133 +2025,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="37"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="37"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="37"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="37"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="37"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="37"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="37"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="37"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="37"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="37"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="37"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="37"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="37"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="37"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="37"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="37"/>
+      <c r="A114" s="50"/>
       <c r="B114" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="37"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="37"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="43" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2158,98 +2160,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="30"/>
+      <c r="A118" s="43"/>
       <c r="B118" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="30"/>
+      <c r="A119" s="43"/>
       <c r="B119" s="20" t="s">
         <v>119</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="30"/>
+      <c r="A120" s="43"/>
       <c r="B120" s="20" t="s">
         <v>122</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="30"/>
+      <c r="A121" s="43"/>
       <c r="B121" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="30"/>
+      <c r="A122" s="43"/>
       <c r="B122" s="20" t="s">
         <v>125</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="30"/>
+      <c r="A123" s="43"/>
       <c r="B123" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="30"/>
+      <c r="A124" s="43"/>
       <c r="B124" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="30"/>
+      <c r="A125" s="43"/>
       <c r="B125" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="30"/>
+      <c r="A126" s="43"/>
       <c r="B126" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="30"/>
+      <c r="A127" s="43"/>
       <c r="B127" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="30"/>
+      <c r="A128" s="43"/>
       <c r="B128" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="30"/>
+      <c r="A129" s="43"/>
       <c r="B129" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="30"/>
+      <c r="A130" s="43"/>
       <c r="B130" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2258,54 +2260,62 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="31"/>
+      <c r="A132" s="44"/>
       <c r="B132" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="31"/>
+      <c r="A133" s="44"/>
       <c r="B133" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="31"/>
+      <c r="A134" s="44"/>
       <c r="B134" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="31"/>
+      <c r="A135" s="44"/>
       <c r="B135" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="31"/>
+      <c r="A136" s="44"/>
       <c r="B136" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="31"/>
+      <c r="A137" s="44"/>
       <c r="B137" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
+      <c r="A138" s="45"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
     <mergeCell ref="D44:D47"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="A9:A21"/>
@@ -2316,14 +2326,6 @@
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A32:A37"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="154">
   <si>
     <t>User Role</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Dealer product Requisition</t>
   </si>
   <si>
-    <t xml:space="preserve">Product requisition authorization </t>
-  </si>
-  <si>
     <t>Product Issue/Delivery against authorization</t>
   </si>
   <si>
@@ -481,6 +478,9 @@
   </si>
   <si>
     <t>Transfer History</t>
+  </si>
+  <si>
+    <t>Product requisition Approved</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -788,7 +788,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1142,13 +1141,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -1165,379 +1164,379 @@
         <v>3</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="37"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="37"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="37"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="37"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="37"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="32"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="32"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="32"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="32"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="32"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="32"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="32"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="35"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="35"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="35"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="35"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="41"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="41"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="41"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="41"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="42"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1546,769 +1545,775 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="39"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="39"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="39"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="39"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="34"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="34"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="29"/>
+        <v>139</v>
+      </c>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="34"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="29"/>
+        <v>139</v>
+      </c>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="34"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="29"/>
+        <v>139</v>
+      </c>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="34"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="34"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="34"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="34"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="34"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="34"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="34"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="34"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="34"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="34"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="34"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="34"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="47"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="29"/>
+        <v>139</v>
+      </c>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="47"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="47"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="47"/>
+      <c r="A64" s="46"/>
       <c r="B64" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="47"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="47"/>
+      <c r="A66" s="46"/>
       <c r="B66" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="47"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="48"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D69" s="29"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="48"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="29"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="47"/>
+      <c r="B71" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="14"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="48"/>
-      <c r="B71" s="15" t="s">
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="47"/>
+      <c r="B72" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="14"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="48"/>
-      <c r="B72" s="15" t="s">
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="47"/>
+      <c r="B73" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="48"/>
-      <c r="B73" s="15" t="s">
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="47"/>
+      <c r="B74" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="14"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="48"/>
-      <c r="B74" s="15" t="s">
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="47"/>
+      <c r="B75" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="14"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="48"/>
-      <c r="B75" s="15" t="s">
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="47"/>
+      <c r="B76" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="14"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="48"/>
-      <c r="B76" s="15" t="s">
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="47"/>
+      <c r="B77" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="14"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="48"/>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="47"/>
+      <c r="B78" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="14"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="48"/>
-      <c r="B78" s="15" t="s">
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="47"/>
+      <c r="B79" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="14"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="48"/>
-      <c r="B79" s="15" t="s">
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="47"/>
+      <c r="B80" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="48"/>
-      <c r="B80" s="15" t="s">
+      <c r="C80" s="14"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="47"/>
+      <c r="B81" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="14"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="48"/>
-      <c r="B81" s="15" t="s">
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="47"/>
+      <c r="B82" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="14"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="48"/>
-      <c r="B82" s="15" t="s">
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="47"/>
+      <c r="B83" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="14"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="48"/>
-      <c r="B83" s="15" t="s">
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="47"/>
+      <c r="B84" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="14"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="48"/>
-      <c r="B84" s="15" t="s">
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="47"/>
+      <c r="B85" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="14"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="48"/>
-      <c r="B85" s="15" t="s">
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="47"/>
+      <c r="B86" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="14"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="48"/>
-      <c r="B86" s="15" t="s">
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="47"/>
+      <c r="B87" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="14"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="48"/>
-      <c r="B87" s="15" t="s">
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="47"/>
+      <c r="B88" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="14"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="48"/>
-      <c r="B88" s="15" t="s">
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="47"/>
+      <c r="B89" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="14"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="48"/>
-      <c r="B89" s="15" t="s">
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="47"/>
+      <c r="B90" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="14"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="48"/>
-      <c r="B90" s="15" t="s">
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="47"/>
+      <c r="B91" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="48"/>
-      <c r="B91" s="15" t="s">
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="47"/>
+      <c r="B92" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="14"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="48"/>
-      <c r="B92" s="15" t="s">
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="14"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="16" t="s">
+      <c r="C93" s="17"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="48"/>
+      <c r="B94" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="17"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="49"/>
-      <c r="B94" s="16" t="s">
+      <c r="C94" s="17"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="48"/>
+      <c r="B95" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="17"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="49"/>
-      <c r="B95" s="16" t="s">
+      <c r="C95" s="17"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="48"/>
+      <c r="B96" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C95" s="17"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="49"/>
-      <c r="B96" s="16" t="s">
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="48"/>
+      <c r="B97" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="17"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="49"/>
-      <c r="B97" s="16" t="s">
+      <c r="C97" s="17"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="17"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" s="18" t="s">
+      <c r="C98" s="18"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="49"/>
+      <c r="B99" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="18"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="50"/>
-      <c r="B99" s="18" t="s">
+      <c r="C99" s="18"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="49"/>
+      <c r="B100" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="18"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="50"/>
-      <c r="B100" s="18" t="s">
+      <c r="C100" s="18"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="49"/>
+      <c r="B101" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="18"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="50"/>
-      <c r="B101" s="18" t="s">
+      <c r="C101" s="18"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="49"/>
+      <c r="B102" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="18"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="50"/>
-      <c r="B102" s="18" t="s">
+      <c r="C102" s="18"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="49"/>
+      <c r="B103" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="18"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="50"/>
-      <c r="B103" s="18" t="s">
+      <c r="C103" s="18"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="49"/>
+      <c r="B104" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="18"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="50"/>
-      <c r="B104" s="18" t="s">
+      <c r="C104" s="18"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="49"/>
+      <c r="B105" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="18"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="50"/>
-      <c r="B105" s="18" t="s">
+      <c r="C105" s="18"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="49"/>
+      <c r="B106" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="18"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="50"/>
-      <c r="B106" s="18" t="s">
+      <c r="C106" s="18"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="49"/>
+      <c r="B107" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="18"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="50"/>
-      <c r="B107" s="18" t="s">
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="49"/>
+      <c r="B108" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="18"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="50"/>
-      <c r="B108" s="18" t="s">
+      <c r="C108" s="18"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="49"/>
+      <c r="B109" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="18"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="50"/>
-      <c r="B109" s="18" t="s">
+      <c r="C109" s="18"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="49"/>
+      <c r="B110" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="18"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="50"/>
-      <c r="B110" s="18" t="s">
+      <c r="C110" s="18"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="49"/>
+      <c r="B111" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="18"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="50"/>
-      <c r="B111" s="18" t="s">
+      <c r="C111" s="18"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="49"/>
+      <c r="B112" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="18"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="50"/>
-      <c r="B112" s="18" t="s">
+      <c r="C112" s="18"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="49"/>
+      <c r="B113" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="18"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="49"/>
+      <c r="B114" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C112" s="18"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="50"/>
-      <c r="B113" s="18" t="s">
+      <c r="C114" s="18"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="49"/>
+      <c r="B115" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="18"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="49"/>
+      <c r="B116" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="18"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="19"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="42"/>
+      <c r="B118" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="19"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="42"/>
+      <c r="B119" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C113" s="18"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="50"/>
-      <c r="B114" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114" s="18"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="50"/>
-      <c r="B115" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="18"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="50"/>
-      <c r="B116" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="18"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117" s="20" t="s">
+      <c r="C119" s="19"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="42"/>
+      <c r="B120" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="19"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="43"/>
-      <c r="B118" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C118" s="19"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="43"/>
-      <c r="B119" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" s="19"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="43"/>
-      <c r="B120" s="20" t="s">
+      <c r="C120" s="19"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="42"/>
+      <c r="B121" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="19"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="43"/>
-      <c r="B121" s="20" t="s">
+      <c r="C121" s="19"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="42"/>
+      <c r="B122" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="19"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="42"/>
+      <c r="B123" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="19"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="43"/>
-      <c r="B122" s="20" t="s">
+      <c r="C123" s="19"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="42"/>
+      <c r="B124" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="19"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="43"/>
-      <c r="B123" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C123" s="19"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="43"/>
-      <c r="B124" s="20" t="s">
+      <c r="C124" s="19"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="42"/>
+      <c r="B125" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="19"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="43"/>
-      <c r="B125" s="20" t="s">
+      <c r="C125" s="19"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="42"/>
+      <c r="B126" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C125" s="19"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="43"/>
-      <c r="B126" s="20" t="s">
+      <c r="C126" s="19"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="42"/>
+      <c r="B127" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C126" s="19"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="43"/>
-      <c r="B127" s="20" t="s">
+      <c r="C127" s="19"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="42"/>
+      <c r="B128" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C127" s="19"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="43"/>
-      <c r="B128" s="20" t="s">
+      <c r="C128" s="19"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="42"/>
+      <c r="B129" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C128" s="19"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="43"/>
-      <c r="B129" s="20" t="s">
+      <c r="C129" s="19"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="42"/>
+      <c r="B130" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C129" s="19"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="43"/>
-      <c r="B130" s="20" t="s">
+      <c r="C130" s="19"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C130" s="19"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B131" s="8" t="s">
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="43"/>
+      <c r="B132" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C131" s="4"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="44"/>
-      <c r="B132" s="8" t="s">
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="43"/>
+      <c r="B133" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C132" s="4"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="44"/>
-      <c r="B133" s="8" t="s">
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="43"/>
+      <c r="B134" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="4"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="44"/>
-      <c r="B134" s="8" t="s">
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="43"/>
+      <c r="B135" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="43"/>
+      <c r="B136" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="44"/>
-      <c r="B135" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="44"/>
-      <c r="B136" s="8" t="s">
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="43"/>
+      <c r="B137" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C136" s="4"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="44"/>
-      <c r="B137" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="45"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="45"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D60:D61"/>
+  <mergeCells count="19">
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D68:D70"/>
     <mergeCell ref="A117:A130"/>
     <mergeCell ref="A131:A137"/>
     <mergeCell ref="A138:C138"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="154">
   <si>
     <t>User Role</t>
   </si>
@@ -794,6 +794,30 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,30 +852,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,7 +1131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68:D70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,12 +1171,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="36"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="36"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="36"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="1" t="s">
         <v>144</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="36"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="36"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1252,7 +1252,7 @@
       <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="31"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="31"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="31"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="31"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="31"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="31"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="31"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="8" t="s">
         <v>142</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="31"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="31"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="8" t="s">
         <v>143</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="31"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="31"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="31"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1384,7 +1384,7 @@
       <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="34"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="34"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="34"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="9" t="s">
         <v>150</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="34"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="34"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="9" t="s">
         <v>149</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="34"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="9" t="s">
         <v>151</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="34"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="34"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="34"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1486,7 +1486,7 @@
       <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="40"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="10" t="s">
         <v>152</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="40"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="40"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="40"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="41"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="10" t="s">
         <v>41</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1545,35 +1545,35 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="38"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="38"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="38"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="38"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1587,7 +1587,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="33"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="8" t="s">
         <v>48</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="33"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="8" t="s">
         <v>49</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="33"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="33"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="8" t="s">
         <v>51</v>
       </c>
@@ -1629,49 +1629,49 @@
       <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="33"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="33"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="33"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="33"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="33"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="33"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="33"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="8" t="s">
         <v>146</v>
       </c>
@@ -1683,7 +1683,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="33"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="8" t="s">
         <v>58</v>
       </c>
@@ -1693,21 +1693,21 @@
       <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="33"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="33"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="33"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="8" t="s">
         <v>61</v>
       </c>
@@ -1719,14 +1719,14 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="33"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1740,7 +1740,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="46"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="13" t="s">
         <v>64</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="46"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="13" t="s">
         <v>65</v>
       </c>
@@ -1760,42 +1760,42 @@
       <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="46"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="46"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="46"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="46"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="46"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="47"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="15" t="s">
         <v>71</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="D69" s="29"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="47"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="15" t="s">
         <v>153</v>
       </c>
@@ -1829,161 +1829,163 @@
       <c r="D70" s="29"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="47"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="14"/>
+      <c r="C71" s="14" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="47"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="47"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="47"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="47"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="47"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="47"/>
+      <c r="A77" s="35"/>
       <c r="B77" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="47"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="47"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="47"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="47"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="47"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="47"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="47"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="47"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="47"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="47"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="47"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="47"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="47"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="47"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="47"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="48" t="s">
+      <c r="A93" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1992,35 +1994,35 @@
       <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="48"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="16" t="s">
         <v>95</v>
       </c>
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="48"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="48"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="48"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="49" t="s">
+      <c r="A98" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -2029,133 +2031,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="49"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="49"/>
+      <c r="A100" s="37"/>
       <c r="B100" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="49"/>
+      <c r="A101" s="37"/>
       <c r="B101" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="49"/>
+      <c r="A102" s="37"/>
       <c r="B102" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="49"/>
+      <c r="A103" s="37"/>
       <c r="B103" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="49"/>
+      <c r="A104" s="37"/>
       <c r="B104" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="49"/>
+      <c r="A105" s="37"/>
       <c r="B105" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="49"/>
+      <c r="A106" s="37"/>
       <c r="B106" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="49"/>
+      <c r="A107" s="37"/>
       <c r="B107" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="49"/>
+      <c r="A108" s="37"/>
       <c r="B108" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="49"/>
+      <c r="A109" s="37"/>
       <c r="B109" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="49"/>
+      <c r="A110" s="37"/>
       <c r="B110" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="49"/>
+      <c r="A111" s="37"/>
       <c r="B111" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="49"/>
+      <c r="A112" s="37"/>
       <c r="B112" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="49"/>
+      <c r="A113" s="37"/>
       <c r="B113" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="49"/>
+      <c r="A114" s="37"/>
       <c r="B114" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="49"/>
+      <c r="A115" s="37"/>
       <c r="B115" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="49"/>
+      <c r="A116" s="37"/>
       <c r="B116" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2164,98 +2166,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="42"/>
+      <c r="A118" s="30"/>
       <c r="B118" s="20" t="s">
         <v>119</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="42"/>
+      <c r="A119" s="30"/>
       <c r="B119" s="20" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="42"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="42"/>
+      <c r="A121" s="30"/>
       <c r="B121" s="20" t="s">
         <v>122</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="42"/>
+      <c r="A122" s="30"/>
       <c r="B122" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="42"/>
+      <c r="A123" s="30"/>
       <c r="B123" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="42"/>
+      <c r="A124" s="30"/>
       <c r="B124" s="20" t="s">
         <v>125</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="42"/>
+      <c r="A125" s="30"/>
       <c r="B125" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="42"/>
+      <c r="A126" s="30"/>
       <c r="B126" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="42"/>
+      <c r="A127" s="30"/>
       <c r="B127" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="42"/>
+      <c r="A128" s="30"/>
       <c r="B128" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="42"/>
+      <c r="A129" s="30"/>
       <c r="B129" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="42"/>
+      <c r="A130" s="30"/>
       <c r="B130" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="43" t="s">
+      <c r="A131" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2264,63 +2266,54 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="43"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="43"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="43"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="43"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="43"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="43"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="44"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
     <mergeCell ref="D44:D47"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="A9:A21"/>
@@ -2331,6 +2324,15 @@
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A32:A37"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales-Invent-Electronic.xlsx
+++ b/Sales-Invent-Electronic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="154">
   <si>
     <t>User Role</t>
   </si>
@@ -711,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -794,6 +794,42 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,42 +854,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,7 +1132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1141,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,12 +1172,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1190,7 +1191,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="44"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1201,7 @@
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="44"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1210,7 +1211,7 @@
       <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="44"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>144</v>
       </c>
@@ -1220,7 +1221,7 @@
       <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="44"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1231,7 @@
       <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="44"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1240,7 +1241,7 @@
       <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1252,7 +1253,7 @@
       <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="39"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
@@ -1262,7 +1263,7 @@
       <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="39"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
@@ -1272,7 +1273,7 @@
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="39"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
@@ -1282,7 +1283,7 @@
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="39"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
@@ -1292,7 +1293,7 @@
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="39"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1303,7 @@
       <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="39"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
@@ -1312,7 +1313,7 @@
       <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="39"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="8" t="s">
         <v>142</v>
       </c>
@@ -1322,7 +1323,7 @@
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="39"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1332,7 +1333,7 @@
       <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="39"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="8" t="s">
         <v>143</v>
       </c>
@@ -1342,7 +1343,7 @@
       <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="39"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1353,7 @@
       <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="39"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
@@ -1362,7 +1363,7 @@
       <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="39"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1373,7 @@
       <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1384,7 +1385,7 @@
       <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="42"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
@@ -1394,7 +1395,7 @@
       <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="42"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
@@ -1404,7 +1405,7 @@
       <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="42"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="9" t="s">
         <v>150</v>
       </c>
@@ -1414,7 +1415,7 @@
       <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="42"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
@@ -1424,7 +1425,7 @@
       <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="42"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="9" t="s">
         <v>149</v>
       </c>
@@ -1434,7 +1435,7 @@
       <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="42"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="9" t="s">
         <v>151</v>
       </c>
@@ -1444,7 +1445,7 @@
       <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="42"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
@@ -1454,7 +1455,7 @@
       <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="42"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
@@ -1464,7 +1465,7 @@
       <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="42"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
@@ -1474,7 +1475,7 @@
       <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1486,7 +1487,7 @@
       <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="48"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="10" t="s">
         <v>152</v>
       </c>
@@ -1496,7 +1497,7 @@
       <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="48"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1506,7 +1507,7 @@
       <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="48"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1517,7 @@
       <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="48"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1527,7 @@
       <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="49"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="10" t="s">
         <v>41</v>
       </c>
@@ -1536,7 +1537,7 @@
       <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -1545,35 +1546,35 @@
       <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="46"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="46"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="46"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="46"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1587,7 +1588,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="41"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="8" t="s">
         <v>48</v>
       </c>
@@ -1599,7 +1600,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="41"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="8" t="s">
         <v>49</v>
       </c>
@@ -1609,7 +1610,7 @@
       <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="41"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="8" t="s">
         <v>50</v>
       </c>
@@ -1619,7 +1620,7 @@
       <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="41"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="8" t="s">
         <v>51</v>
       </c>
@@ -1629,49 +1630,49 @@
       <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="41"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="41"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="41"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="41"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="41"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="41"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="41"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="8" t="s">
         <v>146</v>
       </c>
@@ -1683,7 +1684,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="41"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="8" t="s">
         <v>58</v>
       </c>
@@ -1693,21 +1694,21 @@
       <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="41"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="41"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="41"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="8" t="s">
         <v>61</v>
       </c>
@@ -1719,14 +1720,14 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="41"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -1740,7 +1741,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="34"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="13" t="s">
         <v>64</v>
       </c>
@@ -1750,7 +1751,7 @@
       <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="34"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="13" t="s">
         <v>65</v>
       </c>
@@ -1760,42 +1761,42 @@
       <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="34"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="34"/>
+      <c r="A64" s="46"/>
       <c r="B64" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="34"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="34"/>
+      <c r="A66" s="46"/>
       <c r="B66" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="34"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -1809,7 +1810,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="35"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="15" t="s">
         <v>71</v>
       </c>
@@ -1819,7 +1820,7 @@
       <c r="D69" s="29"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="15" t="s">
         <v>153</v>
       </c>
@@ -1829,7 +1830,7 @@
       <c r="D70" s="29"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="15" t="s">
         <v>72</v>
       </c>
@@ -1838,154 +1839,159 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="35"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="35"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="35"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="35"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="35"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="35"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="35"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="35"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="35"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C80" s="14"/>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="35"/>
+    <row r="81" spans="1:4">
+      <c r="A81" s="47"/>
       <c r="B81" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="14"/>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="35"/>
+    <row r="82" spans="1:4">
+      <c r="A82" s="47"/>
       <c r="B82" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="14"/>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="35"/>
+    <row r="83" spans="1:4">
+      <c r="A83" s="47"/>
       <c r="B83" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C83" s="14"/>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="35"/>
+    <row r="84" spans="1:4">
+      <c r="A84" s="47"/>
       <c r="B84" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C84" s="14"/>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="35"/>
+    <row r="85" spans="1:4">
+      <c r="A85" s="47"/>
       <c r="B85" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C85" s="14"/>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="35"/>
+    <row r="86" spans="1:4">
+      <c r="A86" s="47"/>
       <c r="B86" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C86" s="14"/>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="35"/>
+    <row r="87" spans="1:4">
+      <c r="A87" s="47"/>
       <c r="B87" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="14"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="35"/>
+      <c r="C87" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="47"/>
       <c r="B88" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C88" s="14"/>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="35"/>
+    <row r="89" spans="1:4">
+      <c r="A89" s="47"/>
       <c r="B89" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="14"/>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="35"/>
+    <row r="90" spans="1:4">
+      <c r="A90" s="47"/>
       <c r="B90" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C90" s="14"/>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="35"/>
+    <row r="91" spans="1:4">
+      <c r="A91" s="47"/>
       <c r="B91" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C91" s="14"/>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="35"/>
+    <row r="92" spans="1:4">
+      <c r="A92" s="47"/>
       <c r="B92" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C92" s="14"/>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="36" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -1993,36 +1999,36 @@
       </c>
       <c r="C93" s="17"/>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="36"/>
+    <row r="94" spans="1:4">
+      <c r="A94" s="48"/>
       <c r="B94" s="16" t="s">
         <v>95</v>
       </c>
       <c r="C94" s="17"/>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="36"/>
+    <row r="95" spans="1:4">
+      <c r="A95" s="48"/>
       <c r="B95" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="36"/>
+    <row r="96" spans="1:4">
+      <c r="A96" s="48"/>
       <c r="B96" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="36"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -2031,133 +2037,133 @@
       <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="37"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="37"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C100" s="18"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="37"/>
+      <c r="A101" s="49"/>
       <c r="B101" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C101" s="18"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="37"/>
+      <c r="A102" s="49"/>
       <c r="B102" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C102" s="18"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="37"/>
+      <c r="A103" s="49"/>
       <c r="B103" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="37"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C104" s="18"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="37"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="18"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="37"/>
+      <c r="A106" s="49"/>
       <c r="B106" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C106" s="18"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="37"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C107" s="18"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="37"/>
+      <c r="A108" s="49"/>
       <c r="B108" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C108" s="18"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="37"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C109" s="18"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="37"/>
+      <c r="A110" s="49"/>
       <c r="B110" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C110" s="18"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="37"/>
+      <c r="A111" s="49"/>
       <c r="B111" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="18"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="37"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="37"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="37"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C114" s="18"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="37"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C115" s="18"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="37"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C116" s="18"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -2166,98 +2172,98 @@
       <c r="C117" s="19"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="30"/>
+      <c r="A118" s="42"/>
       <c r="B118" s="20" t="s">
         <v>119</v>
       </c>
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="30"/>
+      <c r="A119" s="42"/>
       <c r="B119" s="20" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="30"/>
+      <c r="A120" s="42"/>
       <c r="B120" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="30"/>
+      <c r="A121" s="42"/>
       <c r="B121" s="20" t="s">
         <v>122</v>
       </c>
       <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="30"/>
+      <c r="A122" s="42"/>
       <c r="B122" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="30"/>
+      <c r="A123" s="42"/>
       <c r="B123" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="30"/>
+      <c r="A124" s="42"/>
       <c r="B124" s="20" t="s">
         <v>125</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="30"/>
+      <c r="A125" s="42"/>
       <c r="B125" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C125" s="19"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="30"/>
+      <c r="A126" s="42"/>
       <c r="B126" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="30"/>
+      <c r="A127" s="42"/>
       <c r="B127" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="30"/>
+      <c r="A128" s="42"/>
       <c r="B128" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="30"/>
+      <c r="A129" s="42"/>
       <c r="B129" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="30"/>
+      <c r="A130" s="42"/>
       <c r="B130" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -2266,54 +2272,63 @@
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="31"/>
+      <c r="A132" s="43"/>
       <c r="B132" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="31"/>
+      <c r="A133" s="43"/>
       <c r="B133" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="31"/>
+      <c r="A134" s="43"/>
       <c r="B134" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="31"/>
+      <c r="A135" s="43"/>
       <c r="B135" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="31"/>
+      <c r="A136" s="43"/>
       <c r="B136" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="31"/>
+      <c r="A137" s="43"/>
       <c r="B137" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="A117:A130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A116"/>
     <mergeCell ref="D44:D47"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="A9:A21"/>
@@ -2324,15 +2339,6 @@
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A32:A37"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
